--- a/dataset_plataformas.xlsx
+++ b/dataset_plataformas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/la_oliveira_petrobras_com_br/Documents/Leandro/Cursos/Pós PUC - Ciência de Dados e Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9CE09C67-332D-41A9-9B5F-472CB63F613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2CB520-C997-4818-982D-2852F48CA854}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{9CE09C67-332D-41A9-9B5F-472CB63F613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2438F51E-D3F7-4C76-B221-7188E79F24B9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA62ED42-65FA-4C1D-8BDF-522BBC4C5A5C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DADOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DADOS!$A$1:$H$612</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DADOS!$A$1:$I$612</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="100">
   <si>
     <t>TIPO</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>PP20</t>
-  </si>
-  <si>
-    <t>FPU</t>
   </si>
   <si>
     <t>PP23</t>
@@ -730,7 +727,7 @@
   <dimension ref="A1:I612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L140" sqref="L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,7 +745,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -763,13 +760,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -4608,7 +4605,7 @@
         <v>37</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
@@ -4637,7 +4634,7 @@
         <v>37</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s">
         <v>21</v>
@@ -4666,7 +4663,7 @@
         <v>37</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
         <v>21</v>
@@ -4695,7 +4692,7 @@
         <v>37</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
         <v>21</v>
@@ -4724,7 +4721,7 @@
         <v>37</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
@@ -4753,7 +4750,7 @@
         <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C139" t="s">
         <v>21</v>
@@ -4782,7 +4779,7 @@
         <v>37</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
@@ -4811,7 +4808,7 @@
         <v>37</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
@@ -4840,7 +4837,7 @@
         <v>37</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
@@ -4869,7 +4866,7 @@
         <v>37</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
@@ -4898,7 +4895,7 @@
         <v>37</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
@@ -4927,7 +4924,7 @@
         <v>37</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C145" t="s">
         <v>21</v>
@@ -4956,7 +4953,7 @@
         <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s">
         <v>21</v>
@@ -4982,7 +4979,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B147" t="s">
         <v>20</v>
@@ -4991,7 +4988,7 @@
         <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E147" t="s">
         <v>13</v>
@@ -5011,7 +5008,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s">
         <v>20</v>
@@ -5020,7 +5017,7 @@
         <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E148" t="s">
         <v>13</v>
@@ -5040,7 +5037,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B149" t="s">
         <v>20</v>
@@ -5049,7 +5046,7 @@
         <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E149" t="s">
         <v>13</v>
@@ -5069,7 +5066,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -5078,7 +5075,7 @@
         <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E150" t="s">
         <v>13</v>
@@ -5098,7 +5095,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -5107,7 +5104,7 @@
         <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E151" t="s">
         <v>13</v>
@@ -5127,7 +5124,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -5136,7 +5133,7 @@
         <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E152" t="s">
         <v>13</v>
@@ -5156,7 +5153,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
@@ -5165,7 +5162,7 @@
         <v>21</v>
       </c>
       <c r="D153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
@@ -5185,7 +5182,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
@@ -5194,7 +5191,7 @@
         <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E154" t="s">
         <v>13</v>
@@ -5214,7 +5211,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B155" t="s">
         <v>20</v>
@@ -5223,7 +5220,7 @@
         <v>21</v>
       </c>
       <c r="D155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E155" t="s">
         <v>13</v>
@@ -5243,7 +5240,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
@@ -5252,7 +5249,7 @@
         <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
@@ -5272,7 +5269,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
@@ -5281,7 +5278,7 @@
         <v>21</v>
       </c>
       <c r="D157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
@@ -5301,7 +5298,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B158" t="s">
         <v>20</v>
@@ -5310,7 +5307,7 @@
         <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E158" t="s">
         <v>13</v>
@@ -5330,7 +5327,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5359,7 +5356,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5388,7 +5385,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5417,7 +5414,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B162" t="s">
         <v>20</v>
@@ -5446,10 +5443,10 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>43</v>
+      </c>
+      <c r="B163" t="s">
         <v>44</v>
-      </c>
-      <c r="B163" t="s">
-        <v>45</v>
       </c>
       <c r="C163" t="s">
         <v>21</v>
@@ -5475,10 +5472,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" t="s">
         <v>44</v>
-      </c>
-      <c r="B164" t="s">
-        <v>45</v>
       </c>
       <c r="C164" t="s">
         <v>21</v>
@@ -5504,10 +5501,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" t="s">
         <v>44</v>
-      </c>
-      <c r="B165" t="s">
-        <v>45</v>
       </c>
       <c r="C165" t="s">
         <v>21</v>
@@ -5533,10 +5530,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166" t="s">
         <v>44</v>
-      </c>
-      <c r="B166" t="s">
-        <v>45</v>
       </c>
       <c r="C166" t="s">
         <v>21</v>
@@ -5562,10 +5559,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C167" t="s">
         <v>21</v>
@@ -5591,10 +5588,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
         <v>21</v>
@@ -5620,10 +5617,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
         <v>21</v>
@@ -5649,10 +5646,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C170" t="s">
         <v>21</v>
@@ -5678,10 +5675,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C171" t="s">
         <v>21</v>
@@ -5707,10 +5704,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C172" t="s">
         <v>21</v>
@@ -5736,10 +5733,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C173" t="s">
         <v>21</v>
@@ -5765,10 +5762,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
@@ -5794,10 +5791,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C175" t="s">
         <v>21</v>
@@ -5823,10 +5820,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
@@ -5852,10 +5849,10 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C177" t="s">
         <v>21</v>
@@ -5881,10 +5878,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C178" t="s">
         <v>21</v>
@@ -5910,10 +5907,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C179" t="s">
         <v>21</v>
@@ -5939,10 +5936,10 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C180" t="s">
         <v>21</v>
@@ -5968,10 +5965,10 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C181" t="s">
         <v>21</v>
@@ -5997,10 +5994,10 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C182" t="s">
         <v>21</v>
@@ -6026,10 +6023,10 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C183" t="s">
         <v>21</v>
@@ -6055,10 +6052,10 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C184" t="s">
         <v>21</v>
@@ -6084,10 +6081,10 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C185" t="s">
         <v>21</v>
@@ -6113,10 +6110,10 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C186" t="s">
         <v>21</v>
@@ -6142,10 +6139,10 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C187" t="s">
         <v>21</v>
@@ -6171,10 +6168,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C188" t="s">
         <v>21</v>
@@ -6200,10 +6197,10 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C189" t="s">
         <v>21</v>
@@ -6229,10 +6226,10 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C190" t="s">
         <v>21</v>
@@ -6258,10 +6255,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C191" t="s">
         <v>21</v>
@@ -6287,10 +6284,10 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C192" t="s">
         <v>21</v>
@@ -6316,10 +6313,10 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C193" t="s">
         <v>21</v>
@@ -6345,10 +6342,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C194" t="s">
         <v>21</v>
@@ -6374,10 +6371,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C195" t="s">
         <v>21</v>
@@ -6403,10 +6400,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C196" t="s">
         <v>21</v>
@@ -6432,10 +6429,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C197" t="s">
         <v>21</v>
@@ -6461,10 +6458,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C198" t="s">
         <v>21</v>
@@ -6490,10 +6487,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B199" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C199" t="s">
         <v>21</v>
@@ -6519,10 +6516,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C200" t="s">
         <v>21</v>
@@ -6548,10 +6545,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C201" t="s">
         <v>21</v>
@@ -6577,10 +6574,10 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C202" t="s">
         <v>21</v>
@@ -6606,7 +6603,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
@@ -6615,10 +6612,10 @@
         <v>11</v>
       </c>
       <c r="D203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E203" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F203" t="s">
         <v>5</v>
@@ -6635,7 +6632,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B204" t="s">
         <v>10</v>
@@ -6644,10 +6641,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E204" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F204" t="s">
         <v>5</v>
@@ -6664,7 +6661,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
@@ -6673,10 +6670,10 @@
         <v>11</v>
       </c>
       <c r="D205" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E205" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F205" t="s">
         <v>5</v>
@@ -6693,7 +6690,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B206" t="s">
         <v>10</v>
@@ -6702,10 +6699,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E206" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F206" t="s">
         <v>5</v>
@@ -6722,7 +6719,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
@@ -6731,10 +6728,10 @@
         <v>11</v>
       </c>
       <c r="D207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E207" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F207" t="s">
         <v>8</v>
@@ -6751,7 +6748,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B208" t="s">
         <v>10</v>
@@ -6760,10 +6757,10 @@
         <v>11</v>
       </c>
       <c r="D208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E208" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F208" t="s">
         <v>8</v>
@@ -6780,7 +6777,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B209" t="s">
         <v>10</v>
@@ -6789,10 +6786,10 @@
         <v>11</v>
       </c>
       <c r="D209" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E209" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F209" t="s">
         <v>5</v>
@@ -6809,7 +6806,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
@@ -6818,10 +6815,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E210" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F210" t="s">
         <v>5</v>
@@ -6838,7 +6835,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B211" t="s">
         <v>10</v>
@@ -6847,10 +6844,10 @@
         <v>11</v>
       </c>
       <c r="D211" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E211" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F211" t="s">
         <v>5</v>
@@ -6867,7 +6864,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
@@ -6876,10 +6873,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E212" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F212" t="s">
         <v>5</v>
@@ -6896,7 +6893,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
@@ -6905,10 +6902,10 @@
         <v>11</v>
       </c>
       <c r="D213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E213" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F213" t="s">
         <v>5</v>
@@ -6925,7 +6922,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B214" t="s">
         <v>10</v>
@@ -6934,10 +6931,10 @@
         <v>11</v>
       </c>
       <c r="D214" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E214" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F214" t="s">
         <v>5</v>
@@ -6954,7 +6951,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
@@ -6963,10 +6960,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E215" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F215" t="s">
         <v>5</v>
@@ -6983,7 +6980,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
@@ -6992,10 +6989,10 @@
         <v>11</v>
       </c>
       <c r="D216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E216" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F216" t="s">
         <v>5</v>
@@ -7012,7 +7009,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B217" t="s">
         <v>10</v>
@@ -7021,10 +7018,10 @@
         <v>11</v>
       </c>
       <c r="D217" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E217" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F217" t="s">
         <v>5</v>
@@ -7041,7 +7038,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B218" t="s">
         <v>10</v>
@@ -7050,10 +7047,10 @@
         <v>11</v>
       </c>
       <c r="D218" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E218" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F218" t="s">
         <v>5</v>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B219" t="s">
         <v>10</v>
@@ -7079,10 +7076,10 @@
         <v>11</v>
       </c>
       <c r="D219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E219" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F219" t="s">
         <v>5</v>
@@ -7099,7 +7096,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B220" t="s">
         <v>10</v>
@@ -7108,10 +7105,10 @@
         <v>11</v>
       </c>
       <c r="D220" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E220" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F220" t="s">
         <v>5</v>
@@ -7128,7 +7125,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
@@ -7137,10 +7134,10 @@
         <v>11</v>
       </c>
       <c r="D221" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E221" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F221" t="s">
         <v>5</v>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
@@ -7166,10 +7163,10 @@
         <v>11</v>
       </c>
       <c r="D222" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E222" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F222" t="s">
         <v>5</v>
@@ -7186,7 +7183,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
@@ -7195,10 +7192,10 @@
         <v>11</v>
       </c>
       <c r="D223" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E223" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F223" t="s">
         <v>5</v>
@@ -7215,7 +7212,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
@@ -7224,10 +7221,10 @@
         <v>11</v>
       </c>
       <c r="D224" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E224" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F224" t="s">
         <v>5</v>
@@ -7244,7 +7241,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
@@ -7253,10 +7250,10 @@
         <v>11</v>
       </c>
       <c r="D225" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E225" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F225" t="s">
         <v>8</v>
@@ -7273,7 +7270,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
@@ -7282,10 +7279,10 @@
         <v>11</v>
       </c>
       <c r="D226" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E226" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F226" t="s">
         <v>5</v>
@@ -7302,7 +7299,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
@@ -7311,10 +7308,10 @@
         <v>11</v>
       </c>
       <c r="D227" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E227" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F227" t="s">
         <v>8</v>
@@ -7331,7 +7328,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B228" t="s">
         <v>10</v>
@@ -7340,10 +7337,10 @@
         <v>11</v>
       </c>
       <c r="D228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E228" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F228" t="s">
         <v>8</v>
@@ -7360,7 +7357,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
@@ -7369,10 +7366,10 @@
         <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E229" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F229" t="s">
         <v>5</v>
@@ -7389,7 +7386,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B230" t="s">
         <v>10</v>
@@ -7401,7 +7398,7 @@
         <v>22</v>
       </c>
       <c r="E230" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F230" t="s">
         <v>5</v>
@@ -7418,7 +7415,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B231" t="s">
         <v>10</v>
@@ -7430,7 +7427,7 @@
         <v>22</v>
       </c>
       <c r="E231" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F231" t="s">
         <v>5</v>
@@ -7447,7 +7444,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B232" t="s">
         <v>10</v>
@@ -7459,7 +7456,7 @@
         <v>22</v>
       </c>
       <c r="E232" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F232" t="s">
         <v>5</v>
@@ -7476,7 +7473,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B233" t="s">
         <v>10</v>
@@ -7488,7 +7485,7 @@
         <v>22</v>
       </c>
       <c r="E233" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F233" t="s">
         <v>5</v>
@@ -7505,7 +7502,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B234" t="s">
         <v>10</v>
@@ -7517,7 +7514,7 @@
         <v>22</v>
       </c>
       <c r="E234" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F234" t="s">
         <v>5</v>
@@ -7534,7 +7531,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B235" t="s">
         <v>10</v>
@@ -7546,7 +7543,7 @@
         <v>22</v>
       </c>
       <c r="E235" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F235" t="s">
         <v>5</v>
@@ -7563,7 +7560,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B236" t="s">
         <v>10</v>
@@ -7572,10 +7569,10 @@
         <v>11</v>
       </c>
       <c r="D236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E236" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F236" t="s">
         <v>5</v>
@@ -7592,7 +7589,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B237" t="s">
         <v>10</v>
@@ -7601,10 +7598,10 @@
         <v>11</v>
       </c>
       <c r="D237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E237" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F237" t="s">
         <v>5</v>
@@ -7621,7 +7618,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B238" t="s">
         <v>10</v>
@@ -7630,10 +7627,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E238" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F238" t="s">
         <v>5</v>
@@ -7650,7 +7647,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B239" t="s">
         <v>10</v>
@@ -7659,10 +7656,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E239" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F239" t="s">
         <v>5</v>
@@ -7679,7 +7676,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B240" t="s">
         <v>10</v>
@@ -7688,10 +7685,10 @@
         <v>11</v>
       </c>
       <c r="D240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E240" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F240" t="s">
         <v>5</v>
@@ -7708,7 +7705,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B241" t="s">
         <v>10</v>
@@ -7717,10 +7714,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E241" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F241" t="s">
         <v>5</v>
@@ -7737,7 +7734,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B242" t="s">
         <v>10</v>
@@ -7746,10 +7743,10 @@
         <v>11</v>
       </c>
       <c r="D242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E242" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F242" t="s">
         <v>5</v>
@@ -7766,7 +7763,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
@@ -7775,10 +7772,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E243" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F243" t="s">
         <v>5</v>
@@ -7795,7 +7792,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B244" t="s">
         <v>10</v>
@@ -7804,10 +7801,10 @@
         <v>11</v>
       </c>
       <c r="D244" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E244" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F244" t="s">
         <v>5</v>
@@ -7824,7 +7821,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B245" t="s">
         <v>10</v>
@@ -7833,10 +7830,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E245" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F245" t="s">
         <v>5</v>
@@ -7853,7 +7850,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B246" t="s">
         <v>10</v>
@@ -7862,10 +7859,10 @@
         <v>11</v>
       </c>
       <c r="D246" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E246" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F246" t="s">
         <v>5</v>
@@ -7882,7 +7879,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B247" t="s">
         <v>10</v>
@@ -7891,10 +7888,10 @@
         <v>11</v>
       </c>
       <c r="D247" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E247" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F247" t="s">
         <v>5</v>
@@ -7911,7 +7908,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B248" t="s">
         <v>10</v>
@@ -7920,10 +7917,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E248" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F248" t="s">
         <v>5</v>
@@ -7940,7 +7937,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B249" t="s">
         <v>10</v>
@@ -7949,10 +7946,10 @@
         <v>11</v>
       </c>
       <c r="D249" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E249" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F249" t="s">
         <v>5</v>
@@ -7969,7 +7966,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B250" t="s">
         <v>10</v>
@@ -7978,10 +7975,10 @@
         <v>11</v>
       </c>
       <c r="D250" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E250" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F250" t="s">
         <v>5</v>
@@ -7998,7 +7995,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B251" t="s">
         <v>10</v>
@@ -8007,10 +8004,10 @@
         <v>11</v>
       </c>
       <c r="D251" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E251" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F251" t="s">
         <v>5</v>
@@ -8027,7 +8024,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B252" t="s">
         <v>10</v>
@@ -8036,10 +8033,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E252" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F252" t="s">
         <v>5</v>
@@ -8056,7 +8053,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B253" t="s">
         <v>10</v>
@@ -8065,10 +8062,10 @@
         <v>11</v>
       </c>
       <c r="D253" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E253" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F253" t="s">
         <v>5</v>
@@ -8085,7 +8082,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B254" t="s">
         <v>10</v>
@@ -8094,10 +8091,10 @@
         <v>11</v>
       </c>
       <c r="D254" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E254" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F254" t="s">
         <v>5</v>
@@ -8114,7 +8111,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B255" t="s">
         <v>10</v>
@@ -8123,10 +8120,10 @@
         <v>11</v>
       </c>
       <c r="D255" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E255" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F255" t="s">
         <v>5</v>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B256" t="s">
         <v>10</v>
@@ -8152,10 +8149,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E256" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F256" t="s">
         <v>5</v>
@@ -8172,7 +8169,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B257" t="s">
         <v>10</v>
@@ -8181,10 +8178,10 @@
         <v>11</v>
       </c>
       <c r="D257" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E257" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F257" t="s">
         <v>5</v>
@@ -8201,7 +8198,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B258" t="s">
         <v>10</v>
@@ -8210,10 +8207,10 @@
         <v>11</v>
       </c>
       <c r="D258" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E258" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F258" t="s">
         <v>5</v>
@@ -8230,7 +8227,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B259" t="s">
         <v>10</v>
@@ -8239,10 +8236,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E259" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F259" t="s">
         <v>5</v>
@@ -8259,7 +8256,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B260" t="s">
         <v>10</v>
@@ -8268,10 +8265,10 @@
         <v>11</v>
       </c>
       <c r="D260" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E260" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F260" t="s">
         <v>5</v>
@@ -8288,7 +8285,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B261" t="s">
         <v>10</v>
@@ -8297,10 +8294,10 @@
         <v>11</v>
       </c>
       <c r="D261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E261" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F261" t="s">
         <v>5</v>
@@ -8317,7 +8314,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B262" t="s">
         <v>10</v>
@@ -8326,10 +8323,10 @@
         <v>11</v>
       </c>
       <c r="D262" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E262" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F262" t="s">
         <v>5</v>
@@ -8346,7 +8343,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B263" t="s">
         <v>10</v>
@@ -8355,10 +8352,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E263" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F263" t="s">
         <v>5</v>
@@ -8375,7 +8372,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B264" t="s">
         <v>10</v>
@@ -8384,10 +8381,10 @@
         <v>11</v>
       </c>
       <c r="D264" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E264" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F264" t="s">
         <v>5</v>
@@ -8404,7 +8401,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B265" t="s">
         <v>10</v>
@@ -8413,10 +8410,10 @@
         <v>11</v>
       </c>
       <c r="D265" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E265" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F265" t="s">
         <v>5</v>
@@ -8433,7 +8430,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B266" t="s">
         <v>10</v>
@@ -8442,10 +8439,10 @@
         <v>11</v>
       </c>
       <c r="D266" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E266" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F266" t="s">
         <v>5</v>
@@ -8462,7 +8459,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B267" t="s">
         <v>10</v>
@@ -8471,10 +8468,10 @@
         <v>11</v>
       </c>
       <c r="D267" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E267" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F267" t="s">
         <v>5</v>
@@ -8491,7 +8488,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B268" t="s">
         <v>10</v>
@@ -8500,10 +8497,10 @@
         <v>11</v>
       </c>
       <c r="D268" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E268" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F268" t="s">
         <v>5</v>
@@ -8520,7 +8517,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B269" t="s">
         <v>10</v>
@@ -8529,10 +8526,10 @@
         <v>11</v>
       </c>
       <c r="D269" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E269" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F269" t="s">
         <v>5</v>
@@ -8549,7 +8546,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B270" t="s">
         <v>10</v>
@@ -8558,10 +8555,10 @@
         <v>11</v>
       </c>
       <c r="D270" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E270" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F270" t="s">
         <v>5</v>
@@ -8578,7 +8575,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B271" t="s">
         <v>10</v>
@@ -8587,10 +8584,10 @@
         <v>11</v>
       </c>
       <c r="D271" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E271" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F271" t="s">
         <v>5</v>
@@ -8607,7 +8604,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B272" t="s">
         <v>10</v>
@@ -8616,10 +8613,10 @@
         <v>11</v>
       </c>
       <c r="D272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E272" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F272" t="s">
         <v>5</v>
@@ -8636,7 +8633,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B273" t="s">
         <v>10</v>
@@ -8645,10 +8642,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E273" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F273" t="s">
         <v>5</v>
@@ -8665,7 +8662,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B274" t="s">
         <v>10</v>
@@ -8674,10 +8671,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E274" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F274" t="s">
         <v>5</v>
@@ -8694,7 +8691,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
@@ -8703,10 +8700,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E275" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F275" t="s">
         <v>5</v>
@@ -8723,7 +8720,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B276" t="s">
         <v>10</v>
@@ -8732,10 +8729,10 @@
         <v>11</v>
       </c>
       <c r="D276" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E276" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F276" t="s">
         <v>5</v>
@@ -8752,7 +8749,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B277" t="s">
         <v>10</v>
@@ -8761,10 +8758,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E277" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F277" t="s">
         <v>5</v>
@@ -8781,7 +8778,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B278" t="s">
         <v>10</v>
@@ -8790,10 +8787,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E278" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F278" t="s">
         <v>5</v>
@@ -8810,7 +8807,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B279" t="s">
         <v>10</v>
@@ -8819,10 +8816,10 @@
         <v>11</v>
       </c>
       <c r="D279" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E279" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F279" t="s">
         <v>8</v>
@@ -8839,7 +8836,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B280" t="s">
         <v>10</v>
@@ -8848,10 +8845,10 @@
         <v>11</v>
       </c>
       <c r="D280" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E280" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F280" t="s">
         <v>5</v>
@@ -8868,7 +8865,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B281" t="s">
         <v>10</v>
@@ -8877,10 +8874,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E281" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F281" t="s">
         <v>5</v>
@@ -8897,7 +8894,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B282" t="s">
         <v>10</v>
@@ -8906,10 +8903,10 @@
         <v>11</v>
       </c>
       <c r="D282" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E282" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F282" t="s">
         <v>5</v>
@@ -8926,7 +8923,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B283" t="s">
         <v>10</v>
@@ -8935,10 +8932,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E283" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F283" t="s">
         <v>5</v>
@@ -8955,7 +8952,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B284" t="s">
         <v>10</v>
@@ -8964,10 +8961,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E284" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F284" t="s">
         <v>5</v>
@@ -8984,7 +8981,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B285" t="s">
         <v>10</v>
@@ -8993,10 +8990,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E285" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F285" t="s">
         <v>5</v>
@@ -9013,7 +9010,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B286" t="s">
         <v>10</v>
@@ -9022,10 +9019,10 @@
         <v>11</v>
       </c>
       <c r="D286" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E286" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F286" t="s">
         <v>5</v>
@@ -9042,7 +9039,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B287" t="s">
         <v>10</v>
@@ -9051,10 +9048,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E287" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F287" t="s">
         <v>5</v>
@@ -9071,7 +9068,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B288" t="s">
         <v>10</v>
@@ -9080,10 +9077,10 @@
         <v>11</v>
       </c>
       <c r="D288" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E288" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F288" t="s">
         <v>5</v>
@@ -9100,7 +9097,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B289" t="s">
         <v>10</v>
@@ -9109,10 +9106,10 @@
         <v>11</v>
       </c>
       <c r="D289" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E289" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F289" t="s">
         <v>5</v>
@@ -9129,7 +9126,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B290" t="s">
         <v>10</v>
@@ -9138,10 +9135,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E290" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F290" t="s">
         <v>5</v>
@@ -9158,7 +9155,7 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B291" t="s">
         <v>10</v>
@@ -9167,10 +9164,10 @@
         <v>11</v>
       </c>
       <c r="D291" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E291" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F291" t="s">
         <v>5</v>
@@ -9187,7 +9184,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B292" t="s">
         <v>10</v>
@@ -9196,10 +9193,10 @@
         <v>11</v>
       </c>
       <c r="D292" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E292" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F292" t="s">
         <v>5</v>
@@ -9216,7 +9213,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B293" t="s">
         <v>10</v>
@@ -9225,10 +9222,10 @@
         <v>11</v>
       </c>
       <c r="D293" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E293" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F293" t="s">
         <v>5</v>
@@ -9245,7 +9242,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B294" t="s">
         <v>10</v>
@@ -9254,10 +9251,10 @@
         <v>11</v>
       </c>
       <c r="D294" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E294" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F294" t="s">
         <v>5</v>
@@ -9274,7 +9271,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B295" t="s">
         <v>10</v>
@@ -9283,10 +9280,10 @@
         <v>11</v>
       </c>
       <c r="D295" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E295" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F295" t="s">
         <v>5</v>
@@ -9303,7 +9300,7 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B296" t="s">
         <v>10</v>
@@ -9312,10 +9309,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E296" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F296" t="s">
         <v>5</v>
@@ -9332,7 +9329,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B297" t="s">
         <v>10</v>
@@ -9341,10 +9338,10 @@
         <v>11</v>
       </c>
       <c r="D297" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E297" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F297" t="s">
         <v>5</v>
@@ -9361,7 +9358,7 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B298" t="s">
         <v>10</v>
@@ -9370,10 +9367,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E298" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F298" t="s">
         <v>5</v>
@@ -9390,7 +9387,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B299" t="s">
         <v>10</v>
@@ -9399,10 +9396,10 @@
         <v>11</v>
       </c>
       <c r="D299" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E299" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F299" t="s">
         <v>8</v>
@@ -9419,7 +9416,7 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B300" t="s">
         <v>10</v>
@@ -9428,10 +9425,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E300" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F300" t="s">
         <v>8</v>
@@ -9448,7 +9445,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B301" t="s">
         <v>10</v>
@@ -9457,10 +9454,10 @@
         <v>11</v>
       </c>
       <c r="D301" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E301" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F301" t="s">
         <v>8</v>
@@ -9477,7 +9474,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B302" t="s">
         <v>10</v>
@@ -9486,10 +9483,10 @@
         <v>11</v>
       </c>
       <c r="D302" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E302" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F302" t="s">
         <v>8</v>
@@ -9506,7 +9503,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B303" t="s">
         <v>10</v>
@@ -9515,10 +9512,10 @@
         <v>11</v>
       </c>
       <c r="D303" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E303" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F303" t="s">
         <v>8</v>
@@ -9535,7 +9532,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B304" t="s">
         <v>10</v>
@@ -9544,10 +9541,10 @@
         <v>11</v>
       </c>
       <c r="D304" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E304" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F304" t="s">
         <v>5</v>
@@ -9564,7 +9561,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B305" t="s">
         <v>10</v>
@@ -9573,10 +9570,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E305" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F305" t="s">
         <v>5</v>
@@ -9593,7 +9590,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B306" t="s">
         <v>10</v>
@@ -9602,10 +9599,10 @@
         <v>11</v>
       </c>
       <c r="D306" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E306" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F306" t="s">
         <v>5</v>
@@ -9622,7 +9619,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B307" t="s">
         <v>10</v>
@@ -9631,10 +9628,10 @@
         <v>11</v>
       </c>
       <c r="D307" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E307" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F307" t="s">
         <v>5</v>
@@ -9651,7 +9648,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B308" t="s">
         <v>10</v>
@@ -9660,10 +9657,10 @@
         <v>11</v>
       </c>
       <c r="D308" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E308" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F308" t="s">
         <v>5</v>
@@ -9680,7 +9677,7 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B309" t="s">
         <v>10</v>
@@ -9689,10 +9686,10 @@
         <v>11</v>
       </c>
       <c r="D309" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E309" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F309" t="s">
         <v>5</v>
@@ -9709,7 +9706,7 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B310" t="s">
         <v>10</v>
@@ -9718,10 +9715,10 @@
         <v>11</v>
       </c>
       <c r="D310" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E310" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F310" t="s">
         <v>5</v>
@@ -9738,7 +9735,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B311" t="s">
         <v>10</v>
@@ -9747,10 +9744,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E311" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F311" t="s">
         <v>5</v>
@@ -9767,7 +9764,7 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B312" t="s">
         <v>10</v>
@@ -9776,10 +9773,10 @@
         <v>11</v>
       </c>
       <c r="D312" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E312" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F312" t="s">
         <v>5</v>
@@ -9796,7 +9793,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B313" t="s">
         <v>10</v>
@@ -9805,10 +9802,10 @@
         <v>11</v>
       </c>
       <c r="D313" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E313" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F313" t="s">
         <v>5</v>
@@ -9825,7 +9822,7 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B314" t="s">
         <v>10</v>
@@ -9834,10 +9831,10 @@
         <v>11</v>
       </c>
       <c r="D314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E314" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F314" t="s">
         <v>5</v>
@@ -9854,7 +9851,7 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B315" t="s">
         <v>10</v>
@@ -9863,10 +9860,10 @@
         <v>11</v>
       </c>
       <c r="D315" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E315" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F315" t="s">
         <v>5</v>
@@ -9883,7 +9880,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B316" t="s">
         <v>10</v>
@@ -9892,10 +9889,10 @@
         <v>11</v>
       </c>
       <c r="D316" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E316" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F316" t="s">
         <v>5</v>
@@ -9912,7 +9909,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B317" t="s">
         <v>10</v>
@@ -9921,10 +9918,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E317" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F317" t="s">
         <v>5</v>
@@ -9941,7 +9938,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B318" t="s">
         <v>10</v>
@@ -9950,10 +9947,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E318" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F318" t="s">
         <v>5</v>
@@ -9970,7 +9967,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B319" t="s">
         <v>10</v>
@@ -9979,10 +9976,10 @@
         <v>11</v>
       </c>
       <c r="D319" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E319" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F319" t="s">
         <v>5</v>
@@ -9999,7 +9996,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B320" t="s">
         <v>10</v>
@@ -10008,10 +10005,10 @@
         <v>11</v>
       </c>
       <c r="D320" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E320" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F320" t="s">
         <v>5</v>
@@ -10028,7 +10025,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B321" t="s">
         <v>10</v>
@@ -10037,10 +10034,10 @@
         <v>11</v>
       </c>
       <c r="D321" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E321" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F321" t="s">
         <v>5</v>
@@ -10057,7 +10054,7 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B322" t="s">
         <v>10</v>
@@ -10066,10 +10063,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E322" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F322" t="s">
         <v>5</v>
@@ -10086,7 +10083,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B323" t="s">
         <v>10</v>
@@ -10095,10 +10092,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E323" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F323" t="s">
         <v>8</v>
@@ -10115,7 +10112,7 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B324" t="s">
         <v>10</v>
@@ -10124,10 +10121,10 @@
         <v>11</v>
       </c>
       <c r="D324" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E324" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F324" t="s">
         <v>5</v>
@@ -10144,7 +10141,7 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B325" t="s">
         <v>10</v>
@@ -10153,10 +10150,10 @@
         <v>11</v>
       </c>
       <c r="D325" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E325" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F325" t="s">
         <v>5</v>
@@ -10173,7 +10170,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B326" t="s">
         <v>10</v>
@@ -10182,10 +10179,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E326" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F326" t="s">
         <v>5</v>
@@ -10202,7 +10199,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B327" t="s">
         <v>10</v>
@@ -10211,10 +10208,10 @@
         <v>11</v>
       </c>
       <c r="D327" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E327" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F327" t="s">
         <v>5</v>
@@ -10231,7 +10228,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B328" t="s">
         <v>10</v>
@@ -10240,10 +10237,10 @@
         <v>11</v>
       </c>
       <c r="D328" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E328" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F328" t="s">
         <v>5</v>
@@ -10260,7 +10257,7 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B329" t="s">
         <v>10</v>
@@ -10269,10 +10266,10 @@
         <v>11</v>
       </c>
       <c r="D329" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E329" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F329" t="s">
         <v>5</v>
@@ -10289,7 +10286,7 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B330" t="s">
         <v>10</v>
@@ -10298,10 +10295,10 @@
         <v>11</v>
       </c>
       <c r="D330" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E330" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F330" t="s">
         <v>5</v>
@@ -10318,7 +10315,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B331" t="s">
         <v>10</v>
@@ -10327,10 +10324,10 @@
         <v>11</v>
       </c>
       <c r="D331" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E331" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F331" t="s">
         <v>5</v>
@@ -10347,7 +10344,7 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B332" t="s">
         <v>10</v>
@@ -10356,10 +10353,10 @@
         <v>11</v>
       </c>
       <c r="D332" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E332" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F332" t="s">
         <v>8</v>
@@ -10376,7 +10373,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B333" t="s">
         <v>10</v>
@@ -10385,10 +10382,10 @@
         <v>11</v>
       </c>
       <c r="D333" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E333" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F333" t="s">
         <v>8</v>
@@ -10405,7 +10402,7 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B334" t="s">
         <v>10</v>
@@ -10414,10 +10411,10 @@
         <v>11</v>
       </c>
       <c r="D334" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E334" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F334" t="s">
         <v>5</v>
@@ -10434,7 +10431,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B335" t="s">
         <v>10</v>
@@ -10443,10 +10440,10 @@
         <v>11</v>
       </c>
       <c r="D335" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E335" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F335" t="s">
         <v>5</v>
@@ -10463,7 +10460,7 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B336" t="s">
         <v>10</v>
@@ -10472,10 +10469,10 @@
         <v>11</v>
       </c>
       <c r="D336" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E336" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F336" t="s">
         <v>5</v>
@@ -10492,7 +10489,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B337" t="s">
         <v>10</v>
@@ -10501,10 +10498,10 @@
         <v>11</v>
       </c>
       <c r="D337" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E337" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F337" t="s">
         <v>5</v>
@@ -10521,7 +10518,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B338" t="s">
         <v>10</v>
@@ -10530,10 +10527,10 @@
         <v>11</v>
       </c>
       <c r="D338" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E338" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F338" t="s">
         <v>5</v>
@@ -10550,7 +10547,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B339" t="s">
         <v>10</v>
@@ -10559,10 +10556,10 @@
         <v>11</v>
       </c>
       <c r="D339" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E339" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F339" t="s">
         <v>5</v>
@@ -10579,7 +10576,7 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B340" t="s">
         <v>10</v>
@@ -10588,10 +10585,10 @@
         <v>11</v>
       </c>
       <c r="D340" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E340" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F340" t="s">
         <v>5</v>
@@ -10608,7 +10605,7 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B341" t="s">
         <v>10</v>
@@ -10617,10 +10614,10 @@
         <v>11</v>
       </c>
       <c r="D341" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E341" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F341" t="s">
         <v>5</v>
@@ -10637,7 +10634,7 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B342" t="s">
         <v>10</v>
@@ -10646,10 +10643,10 @@
         <v>11</v>
       </c>
       <c r="D342" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E342" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F342" t="s">
         <v>5</v>
@@ -10666,7 +10663,7 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B343" t="s">
         <v>10</v>
@@ -10675,10 +10672,10 @@
         <v>11</v>
       </c>
       <c r="D343" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E343" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F343" t="s">
         <v>5</v>
@@ -10695,7 +10692,7 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B344" t="s">
         <v>10</v>
@@ -10704,10 +10701,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E344" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F344" t="s">
         <v>5</v>
@@ -10724,7 +10721,7 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B345" t="s">
         <v>10</v>
@@ -10733,10 +10730,10 @@
         <v>11</v>
       </c>
       <c r="D345" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E345" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F345" t="s">
         <v>5</v>
@@ -10753,7 +10750,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B346" t="s">
         <v>10</v>
@@ -10762,10 +10759,10 @@
         <v>11</v>
       </c>
       <c r="D346" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E346" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F346" t="s">
         <v>5</v>
@@ -10782,7 +10779,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B347" t="s">
         <v>10</v>
@@ -10791,10 +10788,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E347" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F347" t="s">
         <v>5</v>
@@ -10811,7 +10808,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B348" t="s">
         <v>10</v>
@@ -10820,10 +10817,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E348" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F348" t="s">
         <v>5</v>
@@ -10840,7 +10837,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B349" t="s">
         <v>10</v>
@@ -10849,10 +10846,10 @@
         <v>11</v>
       </c>
       <c r="D349" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E349" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F349" t="s">
         <v>5</v>
@@ -10869,7 +10866,7 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B350" t="s">
         <v>10</v>
@@ -10878,10 +10875,10 @@
         <v>11</v>
       </c>
       <c r="D350" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E350" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F350" t="s">
         <v>5</v>
@@ -10898,7 +10895,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B351" t="s">
         <v>10</v>
@@ -10907,10 +10904,10 @@
         <v>11</v>
       </c>
       <c r="D351" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E351" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F351" t="s">
         <v>5</v>
@@ -10927,7 +10924,7 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B352" t="s">
         <v>10</v>
@@ -10936,10 +10933,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E352" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F352" t="s">
         <v>5</v>
@@ -10956,7 +10953,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B353" t="s">
         <v>10</v>
@@ -10965,10 +10962,10 @@
         <v>11</v>
       </c>
       <c r="D353" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E353" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F353" t="s">
         <v>5</v>
@@ -10985,7 +10982,7 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B354" t="s">
         <v>10</v>
@@ -10994,10 +10991,10 @@
         <v>11</v>
       </c>
       <c r="D354" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E354" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F354" t="s">
         <v>5</v>
@@ -11014,7 +11011,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B355" t="s">
         <v>10</v>
@@ -11023,10 +11020,10 @@
         <v>11</v>
       </c>
       <c r="D355" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E355" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F355" t="s">
         <v>5</v>
@@ -11043,7 +11040,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B356" t="s">
         <v>10</v>
@@ -11052,10 +11049,10 @@
         <v>11</v>
       </c>
       <c r="D356" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E356" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F356" t="s">
         <v>5</v>
@@ -11072,7 +11069,7 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B357" t="s">
         <v>10</v>
@@ -11081,10 +11078,10 @@
         <v>11</v>
       </c>
       <c r="D357" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E357" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F357" t="s">
         <v>5</v>
@@ -11101,7 +11098,7 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B358" t="s">
         <v>10</v>
@@ -11110,10 +11107,10 @@
         <v>11</v>
       </c>
       <c r="D358" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E358" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F358" t="s">
         <v>5</v>
@@ -11130,7 +11127,7 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B359" t="s">
         <v>10</v>
@@ -11139,10 +11136,10 @@
         <v>11</v>
       </c>
       <c r="D359" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E359" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F359" t="s">
         <v>5</v>
@@ -11159,7 +11156,7 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B360" t="s">
         <v>10</v>
@@ -11168,10 +11165,10 @@
         <v>11</v>
       </c>
       <c r="D360" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E360" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F360" t="s">
         <v>5</v>
@@ -11188,7 +11185,7 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B361" t="s">
         <v>10</v>
@@ -11197,10 +11194,10 @@
         <v>11</v>
       </c>
       <c r="D361" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E361" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F361" t="s">
         <v>5</v>
@@ -11217,7 +11214,7 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B362" t="s">
         <v>10</v>
@@ -11226,10 +11223,10 @@
         <v>11</v>
       </c>
       <c r="D362" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E362" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F362" t="s">
         <v>5</v>
@@ -11246,7 +11243,7 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B363" t="s">
         <v>10</v>
@@ -11255,10 +11252,10 @@
         <v>11</v>
       </c>
       <c r="D363" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E363" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F363" t="s">
         <v>5</v>
@@ -11275,7 +11272,7 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B364" t="s">
         <v>10</v>
@@ -11284,10 +11281,10 @@
         <v>11</v>
       </c>
       <c r="D364" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E364" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F364" t="s">
         <v>8</v>
@@ -11304,7 +11301,7 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B365" t="s">
         <v>10</v>
@@ -11313,10 +11310,10 @@
         <v>11</v>
       </c>
       <c r="D365" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E365" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F365" t="s">
         <v>8</v>
@@ -11333,7 +11330,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B366" t="s">
         <v>10</v>
@@ -11342,10 +11339,10 @@
         <v>11</v>
       </c>
       <c r="D366" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E366" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F366" t="s">
         <v>8</v>
@@ -11362,7 +11359,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B367" t="s">
         <v>10</v>
@@ -11371,10 +11368,10 @@
         <v>11</v>
       </c>
       <c r="D367" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E367" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F367" t="s">
         <v>8</v>
@@ -11391,7 +11388,7 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B368" t="s">
         <v>10</v>
@@ -11400,10 +11397,10 @@
         <v>11</v>
       </c>
       <c r="D368" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E368" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F368" t="s">
         <v>5</v>
@@ -11420,7 +11417,7 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B369" t="s">
         <v>10</v>
@@ -11429,10 +11426,10 @@
         <v>11</v>
       </c>
       <c r="D369" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E369" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F369" t="s">
         <v>5</v>
@@ -11449,7 +11446,7 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B370" t="s">
         <v>10</v>
@@ -11458,10 +11455,10 @@
         <v>11</v>
       </c>
       <c r="D370" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E370" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F370" t="s">
         <v>8</v>
@@ -11478,7 +11475,7 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B371" t="s">
         <v>10</v>
@@ -11487,10 +11484,10 @@
         <v>11</v>
       </c>
       <c r="D371" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E371" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F371" t="s">
         <v>5</v>
@@ -11507,7 +11504,7 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B372" t="s">
         <v>10</v>
@@ -11516,10 +11513,10 @@
         <v>11</v>
       </c>
       <c r="D372" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E372" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F372" t="s">
         <v>8</v>
@@ -11536,7 +11533,7 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B373" t="s">
         <v>10</v>
@@ -11545,10 +11542,10 @@
         <v>11</v>
       </c>
       <c r="D373" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E373" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F373" t="s">
         <v>8</v>
@@ -11565,7 +11562,7 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B374" t="s">
         <v>10</v>
@@ -11577,7 +11574,7 @@
         <v>12</v>
       </c>
       <c r="E374" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F374" t="s">
         <v>5</v>
@@ -11594,7 +11591,7 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B375" t="s">
         <v>10</v>
@@ -11606,7 +11603,7 @@
         <v>12</v>
       </c>
       <c r="E375" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F375" t="s">
         <v>5</v>
@@ -11623,7 +11620,7 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B376" t="s">
         <v>10</v>
@@ -11635,7 +11632,7 @@
         <v>12</v>
       </c>
       <c r="E376" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F376" t="s">
         <v>5</v>
@@ -11652,7 +11649,7 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B377" t="s">
         <v>10</v>
@@ -11664,7 +11661,7 @@
         <v>12</v>
       </c>
       <c r="E377" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F377" t="s">
         <v>5</v>
@@ -11681,7 +11678,7 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B378" t="s">
         <v>10</v>
@@ -11693,7 +11690,7 @@
         <v>12</v>
       </c>
       <c r="E378" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F378" t="s">
         <v>5</v>
@@ -11710,7 +11707,7 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B379" t="s">
         <v>10</v>
@@ -11722,7 +11719,7 @@
         <v>12</v>
       </c>
       <c r="E379" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F379" t="s">
         <v>8</v>
@@ -11739,7 +11736,7 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B380" t="s">
         <v>10</v>
@@ -11751,7 +11748,7 @@
         <v>12</v>
       </c>
       <c r="E380" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F380" t="s">
         <v>5</v>
@@ -11768,7 +11765,7 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B381" t="s">
         <v>10</v>
@@ -11780,7 +11777,7 @@
         <v>12</v>
       </c>
       <c r="E381" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F381" t="s">
         <v>5</v>
@@ -11797,7 +11794,7 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B382" t="s">
         <v>10</v>
@@ -11809,7 +11806,7 @@
         <v>12</v>
       </c>
       <c r="E382" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F382" t="s">
         <v>5</v>
@@ -11826,7 +11823,7 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B383" t="s">
         <v>10</v>
@@ -11838,7 +11835,7 @@
         <v>12</v>
       </c>
       <c r="E383" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F383" t="s">
         <v>5</v>
@@ -11855,7 +11852,7 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B384" t="s">
         <v>10</v>
@@ -11867,7 +11864,7 @@
         <v>12</v>
       </c>
       <c r="E384" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F384" t="s">
         <v>5</v>
@@ -11884,7 +11881,7 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B385" t="s">
         <v>10</v>
@@ -11896,7 +11893,7 @@
         <v>12</v>
       </c>
       <c r="E385" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F385" t="s">
         <v>5</v>
@@ -11913,7 +11910,7 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B386" t="s">
         <v>10</v>
@@ -11925,7 +11922,7 @@
         <v>12</v>
       </c>
       <c r="E386" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F386" t="s">
         <v>5</v>
@@ -11942,7 +11939,7 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B387" t="s">
         <v>10</v>
@@ -11954,7 +11951,7 @@
         <v>12</v>
       </c>
       <c r="E387" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F387" t="s">
         <v>5</v>
@@ -11971,7 +11968,7 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B388" t="s">
         <v>10</v>
@@ -11980,10 +11977,10 @@
         <v>21</v>
       </c>
       <c r="D388" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E388" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F388" t="s">
         <v>5</v>
@@ -12000,7 +11997,7 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B389" t="s">
         <v>10</v>
@@ -12009,10 +12006,10 @@
         <v>21</v>
       </c>
       <c r="D389" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E389" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F389" t="s">
         <v>5</v>
@@ -12029,7 +12026,7 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B390" t="s">
         <v>10</v>
@@ -12038,10 +12035,10 @@
         <v>21</v>
       </c>
       <c r="D390" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E390" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F390" t="s">
         <v>5</v>
@@ -12058,7 +12055,7 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B391" t="s">
         <v>10</v>
@@ -12067,10 +12064,10 @@
         <v>21</v>
       </c>
       <c r="D391" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E391" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F391" t="s">
         <v>5</v>
@@ -12087,7 +12084,7 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B392" t="s">
         <v>10</v>
@@ -12096,10 +12093,10 @@
         <v>21</v>
       </c>
       <c r="D392" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E392" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F392" t="s">
         <v>5</v>
@@ -12116,7 +12113,7 @@
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B393" t="s">
         <v>10</v>
@@ -12125,10 +12122,10 @@
         <v>21</v>
       </c>
       <c r="D393" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E393" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F393" t="s">
         <v>5</v>
@@ -12145,7 +12142,7 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B394" t="s">
         <v>10</v>
@@ -12154,10 +12151,10 @@
         <v>21</v>
       </c>
       <c r="D394" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E394" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F394" t="s">
         <v>5</v>
@@ -12174,7 +12171,7 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B395" t="s">
         <v>10</v>
@@ -12183,10 +12180,10 @@
         <v>21</v>
       </c>
       <c r="D395" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E395" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F395" t="s">
         <v>5</v>
@@ -12203,7 +12200,7 @@
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B396" t="s">
         <v>10</v>
@@ -12212,10 +12209,10 @@
         <v>21</v>
       </c>
       <c r="D396" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E396" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F396" t="s">
         <v>5</v>
@@ -12232,7 +12229,7 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B397" t="s">
         <v>10</v>
@@ -12241,10 +12238,10 @@
         <v>21</v>
       </c>
       <c r="D397" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E397" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F397" t="s">
         <v>5</v>
@@ -12261,7 +12258,7 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B398" t="s">
         <v>10</v>
@@ -12270,10 +12267,10 @@
         <v>21</v>
       </c>
       <c r="D398" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E398" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F398" t="s">
         <v>5</v>
@@ -12290,7 +12287,7 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B399" t="s">
         <v>10</v>
@@ -12299,10 +12296,10 @@
         <v>21</v>
       </c>
       <c r="D399" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E399" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F399" t="s">
         <v>5</v>
@@ -12319,7 +12316,7 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B400" t="s">
         <v>10</v>
@@ -12328,10 +12325,10 @@
         <v>21</v>
       </c>
       <c r="D400" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E400" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F400" t="s">
         <v>5</v>
@@ -12348,7 +12345,7 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B401" t="s">
         <v>10</v>
@@ -12357,10 +12354,10 @@
         <v>21</v>
       </c>
       <c r="D401" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E401" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F401" t="s">
         <v>5</v>
@@ -12377,7 +12374,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B402" t="s">
         <v>10</v>
@@ -12386,10 +12383,10 @@
         <v>21</v>
       </c>
       <c r="D402" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E402" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F402" t="s">
         <v>5</v>
@@ -12406,7 +12403,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B403" t="s">
         <v>10</v>
@@ -12415,10 +12412,10 @@
         <v>21</v>
       </c>
       <c r="D403" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E403" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F403" t="s">
         <v>5</v>
@@ -12435,7 +12432,7 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B404" t="s">
         <v>10</v>
@@ -12444,10 +12441,10 @@
         <v>21</v>
       </c>
       <c r="D404" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E404" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F404" t="s">
         <v>5</v>
@@ -12464,7 +12461,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B405" t="s">
         <v>10</v>
@@ -12473,10 +12470,10 @@
         <v>21</v>
       </c>
       <c r="D405" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E405" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F405" t="s">
         <v>5</v>
@@ -12493,7 +12490,7 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B406" t="s">
         <v>10</v>
@@ -12502,10 +12499,10 @@
         <v>21</v>
       </c>
       <c r="D406" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E406" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F406" t="s">
         <v>5</v>
@@ -12522,7 +12519,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B407" t="s">
         <v>10</v>
@@ -12531,10 +12528,10 @@
         <v>21</v>
       </c>
       <c r="D407" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E407" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F407" t="s">
         <v>8</v>
@@ -12551,7 +12548,7 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B408" t="s">
         <v>10</v>
@@ -12560,10 +12557,10 @@
         <v>21</v>
       </c>
       <c r="D408" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E408" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F408" t="s">
         <v>8</v>
@@ -12580,7 +12577,7 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B409" t="s">
         <v>10</v>
@@ -12589,10 +12586,10 @@
         <v>21</v>
       </c>
       <c r="D409" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E409" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F409" t="s">
         <v>5</v>
@@ -12609,7 +12606,7 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B410" t="s">
         <v>10</v>
@@ -12618,10 +12615,10 @@
         <v>21</v>
       </c>
       <c r="D410" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E410" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F410" t="s">
         <v>8</v>
@@ -12638,7 +12635,7 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B411" t="s">
         <v>10</v>
@@ -12647,10 +12644,10 @@
         <v>21</v>
       </c>
       <c r="D411" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E411" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F411" t="s">
         <v>5</v>
@@ -12667,7 +12664,7 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B412" t="s">
         <v>10</v>
@@ -12676,10 +12673,10 @@
         <v>21</v>
       </c>
       <c r="D412" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E412" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F412" t="s">
         <v>5</v>
@@ -12696,7 +12693,7 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B413" t="s">
         <v>10</v>
@@ -12705,10 +12702,10 @@
         <v>21</v>
       </c>
       <c r="D413" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E413" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F413" t="s">
         <v>5</v>
@@ -12725,7 +12722,7 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B414" t="s">
         <v>10</v>
@@ -12734,10 +12731,10 @@
         <v>21</v>
       </c>
       <c r="D414" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E414" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F414" t="s">
         <v>5</v>
@@ -12754,7 +12751,7 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B415" t="s">
         <v>10</v>
@@ -12763,10 +12760,10 @@
         <v>21</v>
       </c>
       <c r="D415" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E415" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F415" t="s">
         <v>5</v>
@@ -12783,7 +12780,7 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B416" t="s">
         <v>10</v>
@@ -12792,10 +12789,10 @@
         <v>21</v>
       </c>
       <c r="D416" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E416" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F416" t="s">
         <v>5</v>
@@ -12812,7 +12809,7 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B417" t="s">
         <v>10</v>
@@ -12821,10 +12818,10 @@
         <v>21</v>
       </c>
       <c r="D417" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E417" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F417" t="s">
         <v>5</v>
@@ -12841,7 +12838,7 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B418" t="s">
         <v>10</v>
@@ -12850,10 +12847,10 @@
         <v>21</v>
       </c>
       <c r="D418" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E418" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F418" t="s">
         <v>5</v>
@@ -12870,7 +12867,7 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B419" t="s">
         <v>10</v>
@@ -12879,10 +12876,10 @@
         <v>21</v>
       </c>
       <c r="D419" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E419" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F419" t="s">
         <v>8</v>
@@ -12899,7 +12896,7 @@
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B420" t="s">
         <v>10</v>
@@ -12908,10 +12905,10 @@
         <v>21</v>
       </c>
       <c r="D420" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E420" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F420" t="s">
         <v>5</v>
@@ -12928,7 +12925,7 @@
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B421" t="s">
         <v>10</v>
@@ -12937,10 +12934,10 @@
         <v>21</v>
       </c>
       <c r="D421" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E421" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F421" t="s">
         <v>5</v>
@@ -12957,7 +12954,7 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B422" t="s">
         <v>10</v>
@@ -12966,10 +12963,10 @@
         <v>21</v>
       </c>
       <c r="D422" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E422" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F422" t="s">
         <v>5</v>
@@ -12986,7 +12983,7 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B423" t="s">
         <v>10</v>
@@ -12995,10 +12992,10 @@
         <v>21</v>
       </c>
       <c r="D423" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E423" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F423" t="s">
         <v>5</v>
@@ -13015,7 +13012,7 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B424" t="s">
         <v>10</v>
@@ -13024,10 +13021,10 @@
         <v>21</v>
       </c>
       <c r="D424" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E424" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F424" t="s">
         <v>5</v>
@@ -13044,7 +13041,7 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B425" t="s">
         <v>10</v>
@@ -13053,10 +13050,10 @@
         <v>21</v>
       </c>
       <c r="D425" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E425" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F425" t="s">
         <v>5</v>
@@ -13073,7 +13070,7 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B426" t="s">
         <v>10</v>
@@ -13082,10 +13079,10 @@
         <v>21</v>
       </c>
       <c r="D426" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E426" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F426" t="s">
         <v>5</v>
@@ -13102,7 +13099,7 @@
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B427" t="s">
         <v>10</v>
@@ -13111,10 +13108,10 @@
         <v>21</v>
       </c>
       <c r="D427" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E427" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F427" t="s">
         <v>5</v>
@@ -13131,7 +13128,7 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B428" t="s">
         <v>10</v>
@@ -13140,10 +13137,10 @@
         <v>21</v>
       </c>
       <c r="D428" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E428" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F428" t="s">
         <v>5</v>
@@ -13160,7 +13157,7 @@
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B429" t="s">
         <v>10</v>
@@ -13169,10 +13166,10 @@
         <v>21</v>
       </c>
       <c r="D429" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E429" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F429" t="s">
         <v>5</v>
@@ -13189,7 +13186,7 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B430" t="s">
         <v>10</v>
@@ -13198,10 +13195,10 @@
         <v>21</v>
       </c>
       <c r="D430" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E430" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F430" t="s">
         <v>8</v>
@@ -13218,7 +13215,7 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B431" t="s">
         <v>10</v>
@@ -13227,10 +13224,10 @@
         <v>21</v>
       </c>
       <c r="D431" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E431" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F431" t="s">
         <v>8</v>
@@ -13247,7 +13244,7 @@
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B432" t="s">
         <v>10</v>
@@ -13256,10 +13253,10 @@
         <v>11</v>
       </c>
       <c r="D432" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E432" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F432" t="s">
         <v>5</v>
@@ -13276,7 +13273,7 @@
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B433" t="s">
         <v>10</v>
@@ -13285,10 +13282,10 @@
         <v>11</v>
       </c>
       <c r="D433" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E433" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F433" t="s">
         <v>5</v>
@@ -13305,7 +13302,7 @@
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B434" t="s">
         <v>10</v>
@@ -13314,10 +13311,10 @@
         <v>21</v>
       </c>
       <c r="D434" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E434" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F434" t="s">
         <v>5</v>
@@ -13334,7 +13331,7 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B435" t="s">
         <v>10</v>
@@ -13343,10 +13340,10 @@
         <v>21</v>
       </c>
       <c r="D435" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E435" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F435" t="s">
         <v>5</v>
@@ -13363,7 +13360,7 @@
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B436" t="s">
         <v>10</v>
@@ -13372,10 +13369,10 @@
         <v>21</v>
       </c>
       <c r="D436" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E436" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F436" t="s">
         <v>5</v>
@@ -13392,7 +13389,7 @@
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B437" t="s">
         <v>10</v>
@@ -13401,10 +13398,10 @@
         <v>21</v>
       </c>
       <c r="D437" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E437" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F437" t="s">
         <v>5</v>
@@ -13421,7 +13418,7 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B438" t="s">
         <v>10</v>
@@ -13430,10 +13427,10 @@
         <v>21</v>
       </c>
       <c r="D438" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E438" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F438" t="s">
         <v>5</v>
@@ -13450,7 +13447,7 @@
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B439" t="s">
         <v>10</v>
@@ -13459,10 +13456,10 @@
         <v>21</v>
       </c>
       <c r="D439" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E439" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F439" t="s">
         <v>5</v>
@@ -13479,7 +13476,7 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B440" t="s">
         <v>10</v>
@@ -13488,10 +13485,10 @@
         <v>21</v>
       </c>
       <c r="D440" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E440" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F440" t="s">
         <v>5</v>
@@ -13508,7 +13505,7 @@
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B441" t="s">
         <v>10</v>
@@ -13517,10 +13514,10 @@
         <v>21</v>
       </c>
       <c r="D441" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E441" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F441" t="s">
         <v>5</v>
@@ -13537,7 +13534,7 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B442" t="s">
         <v>10</v>
@@ -13546,10 +13543,10 @@
         <v>21</v>
       </c>
       <c r="D442" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E442" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F442" t="s">
         <v>5</v>
@@ -13566,7 +13563,7 @@
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B443" t="s">
         <v>10</v>
@@ -13575,10 +13572,10 @@
         <v>21</v>
       </c>
       <c r="D443" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E443" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F443" t="s">
         <v>5</v>
@@ -13595,7 +13592,7 @@
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B444" t="s">
         <v>10</v>
@@ -13604,10 +13601,10 @@
         <v>21</v>
       </c>
       <c r="D444" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E444" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F444" t="s">
         <v>5</v>
@@ -13624,7 +13621,7 @@
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B445" t="s">
         <v>10</v>
@@ -13633,10 +13630,10 @@
         <v>21</v>
       </c>
       <c r="D445" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E445" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F445" t="s">
         <v>5</v>
@@ -13653,7 +13650,7 @@
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B446" t="s">
         <v>10</v>
@@ -13662,10 +13659,10 @@
         <v>21</v>
       </c>
       <c r="D446" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E446" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F446" t="s">
         <v>5</v>
@@ -13682,7 +13679,7 @@
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B447" t="s">
         <v>10</v>
@@ -13691,10 +13688,10 @@
         <v>21</v>
       </c>
       <c r="D447" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E447" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F447" t="s">
         <v>5</v>
@@ -13711,7 +13708,7 @@
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B448" t="s">
         <v>10</v>
@@ -13720,10 +13717,10 @@
         <v>21</v>
       </c>
       <c r="D448" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E448" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F448" t="s">
         <v>5</v>
@@ -13740,7 +13737,7 @@
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B449" t="s">
         <v>10</v>
@@ -13749,10 +13746,10 @@
         <v>21</v>
       </c>
       <c r="D449" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E449" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F449" t="s">
         <v>5</v>
@@ -13769,7 +13766,7 @@
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B450" t="s">
         <v>10</v>
@@ -13778,10 +13775,10 @@
         <v>21</v>
       </c>
       <c r="D450" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E450" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F450" t="s">
         <v>5</v>
@@ -13798,7 +13795,7 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B451" t="s">
         <v>10</v>
@@ -13807,10 +13804,10 @@
         <v>21</v>
       </c>
       <c r="D451" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E451" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F451" t="s">
         <v>5</v>
@@ -13827,7 +13824,7 @@
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B452" t="s">
         <v>10</v>
@@ -13836,10 +13833,10 @@
         <v>21</v>
       </c>
       <c r="D452" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E452" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F452" t="s">
         <v>5</v>
@@ -13856,7 +13853,7 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B453" t="s">
         <v>10</v>
@@ -13865,10 +13862,10 @@
         <v>21</v>
       </c>
       <c r="D453" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E453" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F453" t="s">
         <v>5</v>
@@ -13885,7 +13882,7 @@
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B454" t="s">
         <v>10</v>
@@ -13894,10 +13891,10 @@
         <v>21</v>
       </c>
       <c r="D454" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E454" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F454" t="s">
         <v>5</v>
@@ -13914,7 +13911,7 @@
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B455" t="s">
         <v>10</v>
@@ -13923,10 +13920,10 @@
         <v>21</v>
       </c>
       <c r="D455" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E455" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F455" t="s">
         <v>5</v>
@@ -13943,7 +13940,7 @@
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B456" t="s">
         <v>10</v>
@@ -13952,10 +13949,10 @@
         <v>21</v>
       </c>
       <c r="D456" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E456" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F456" t="s">
         <v>5</v>
@@ -13972,7 +13969,7 @@
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B457" t="s">
         <v>10</v>
@@ -13981,10 +13978,10 @@
         <v>21</v>
       </c>
       <c r="D457" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E457" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F457" t="s">
         <v>5</v>
@@ -14001,7 +13998,7 @@
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B458" t="s">
         <v>10</v>
@@ -14010,10 +14007,10 @@
         <v>21</v>
       </c>
       <c r="D458" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E458" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F458" t="s">
         <v>5</v>
@@ -14030,7 +14027,7 @@
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B459" t="s">
         <v>10</v>
@@ -14039,10 +14036,10 @@
         <v>21</v>
       </c>
       <c r="D459" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E459" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F459" t="s">
         <v>5</v>
@@ -14059,7 +14056,7 @@
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B460" t="s">
         <v>10</v>
@@ -14068,10 +14065,10 @@
         <v>21</v>
       </c>
       <c r="D460" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E460" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F460" t="s">
         <v>5</v>
@@ -14088,7 +14085,7 @@
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B461" t="s">
         <v>10</v>
@@ -14097,10 +14094,10 @@
         <v>21</v>
       </c>
       <c r="D461" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E461" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F461" t="s">
         <v>5</v>
@@ -14117,7 +14114,7 @@
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B462" t="s">
         <v>10</v>
@@ -14146,7 +14143,7 @@
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B463" t="s">
         <v>10</v>
@@ -14175,7 +14172,7 @@
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B464" t="s">
         <v>10</v>
@@ -14204,7 +14201,7 @@
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B465" t="s">
         <v>10</v>
@@ -14233,7 +14230,7 @@
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B466" t="s">
         <v>10</v>
@@ -14262,7 +14259,7 @@
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B467" t="s">
         <v>10</v>
@@ -14291,7 +14288,7 @@
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B468" t="s">
         <v>10</v>
@@ -14320,7 +14317,7 @@
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B469" t="s">
         <v>10</v>
@@ -14349,7 +14346,7 @@
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B470" t="s">
         <v>10</v>
@@ -14378,7 +14375,7 @@
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B471" t="s">
         <v>10</v>
@@ -14407,7 +14404,7 @@
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B472" t="s">
         <v>10</v>
@@ -14436,7 +14433,7 @@
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B473" t="s">
         <v>10</v>
@@ -14465,7 +14462,7 @@
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B474" t="s">
         <v>10</v>
@@ -14494,7 +14491,7 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B475" t="s">
         <v>10</v>
@@ -14523,7 +14520,7 @@
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B476" t="s">
         <v>10</v>
@@ -14552,7 +14549,7 @@
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B477" t="s">
         <v>10</v>
@@ -14581,7 +14578,7 @@
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B478" t="s">
         <v>10</v>
@@ -14610,7 +14607,7 @@
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B479" t="s">
         <v>10</v>
@@ -14639,7 +14636,7 @@
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B480" t="s">
         <v>10</v>
@@ -14668,7 +14665,7 @@
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B481" t="s">
         <v>10</v>
@@ -14697,7 +14694,7 @@
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B482" t="s">
         <v>10</v>
@@ -14726,7 +14723,7 @@
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B483" t="s">
         <v>10</v>
@@ -14755,7 +14752,7 @@
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B484" t="s">
         <v>10</v>
@@ -14784,7 +14781,7 @@
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B485" t="s">
         <v>10</v>
@@ -14813,7 +14810,7 @@
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B486" t="s">
         <v>10</v>
@@ -14842,7 +14839,7 @@
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B487" t="s">
         <v>10</v>
@@ -14871,7 +14868,7 @@
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B488" t="s">
         <v>10</v>
@@ -14900,7 +14897,7 @@
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B489" t="s">
         <v>10</v>
@@ -14929,7 +14926,7 @@
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B490" t="s">
         <v>10</v>
@@ -14958,7 +14955,7 @@
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B491" t="s">
         <v>10</v>
@@ -14987,7 +14984,7 @@
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B492" t="s">
         <v>10</v>
@@ -15016,7 +15013,7 @@
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B493" t="s">
         <v>20</v>
@@ -15045,7 +15042,7 @@
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B494" t="s">
         <v>20</v>
@@ -15074,7 +15071,7 @@
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B495" t="s">
         <v>20</v>
@@ -15103,7 +15100,7 @@
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B496" t="s">
         <v>20</v>
@@ -15132,7 +15129,7 @@
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B497" t="s">
         <v>20</v>
@@ -15161,7 +15158,7 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B498" t="s">
         <v>20</v>
@@ -15190,7 +15187,7 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B499" t="s">
         <v>20</v>
@@ -15219,7 +15216,7 @@
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B500" t="s">
         <v>10</v>
@@ -15248,7 +15245,7 @@
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B501" t="s">
         <v>10</v>
@@ -15277,7 +15274,7 @@
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B502" t="s">
         <v>10</v>
@@ -15306,7 +15303,7 @@
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B503" t="s">
         <v>10</v>
@@ -15335,7 +15332,7 @@
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B504" t="s">
         <v>10</v>
@@ -15364,7 +15361,7 @@
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B505" t="s">
         <v>10</v>
@@ -15393,7 +15390,7 @@
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B506" t="s">
         <v>10</v>
@@ -15422,7 +15419,7 @@
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B507" t="s">
         <v>10</v>
@@ -15451,7 +15448,7 @@
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B508" t="s">
         <v>10</v>
@@ -15480,7 +15477,7 @@
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B509" t="s">
         <v>10</v>
@@ -15509,7 +15506,7 @@
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B510" t="s">
         <v>10</v>
@@ -15538,7 +15535,7 @@
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B511" t="s">
         <v>10</v>
@@ -15567,7 +15564,7 @@
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B512" t="s">
         <v>10</v>
@@ -15596,7 +15593,7 @@
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B513" t="s">
         <v>10</v>
@@ -15625,7 +15622,7 @@
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B514" t="s">
         <v>10</v>
@@ -15654,7 +15651,7 @@
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B515" t="s">
         <v>10</v>
@@ -15683,7 +15680,7 @@
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B516" t="s">
         <v>10</v>
@@ -15712,7 +15709,7 @@
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B517" t="s">
         <v>10</v>
@@ -15741,7 +15738,7 @@
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B518" t="s">
         <v>10</v>
@@ -15770,7 +15767,7 @@
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B519" t="s">
         <v>20</v>
@@ -15779,7 +15776,7 @@
         <v>21</v>
       </c>
       <c r="D519" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E519" t="s">
         <v>13</v>
@@ -15799,7 +15796,7 @@
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B520" t="s">
         <v>20</v>
@@ -15808,7 +15805,7 @@
         <v>21</v>
       </c>
       <c r="D520" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E520" t="s">
         <v>13</v>
@@ -15828,7 +15825,7 @@
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B521" t="s">
         <v>20</v>
@@ -15837,7 +15834,7 @@
         <v>21</v>
       </c>
       <c r="D521" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E521" t="s">
         <v>13</v>
@@ -15857,7 +15854,7 @@
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B522" t="s">
         <v>20</v>
@@ -15866,7 +15863,7 @@
         <v>21</v>
       </c>
       <c r="D522" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E522" t="s">
         <v>13</v>
@@ -15886,7 +15883,7 @@
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B523" t="s">
         <v>20</v>
@@ -15895,7 +15892,7 @@
         <v>21</v>
       </c>
       <c r="D523" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E523" t="s">
         <v>13</v>
@@ -15915,7 +15912,7 @@
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B524" t="s">
         <v>20</v>
@@ -15924,7 +15921,7 @@
         <v>21</v>
       </c>
       <c r="D524" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E524" t="s">
         <v>13</v>
@@ -15944,7 +15941,7 @@
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B525" t="s">
         <v>20</v>
@@ -15953,7 +15950,7 @@
         <v>21</v>
       </c>
       <c r="D525" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E525" t="s">
         <v>13</v>
@@ -15973,7 +15970,7 @@
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B526" t="s">
         <v>20</v>
@@ -15982,7 +15979,7 @@
         <v>21</v>
       </c>
       <c r="D526" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E526" t="s">
         <v>13</v>
@@ -16002,7 +15999,7 @@
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B527" t="s">
         <v>20</v>
@@ -16011,7 +16008,7 @@
         <v>21</v>
       </c>
       <c r="D527" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E527" t="s">
         <v>13</v>
@@ -16031,7 +16028,7 @@
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B528" t="s">
         <v>20</v>
@@ -16040,7 +16037,7 @@
         <v>21</v>
       </c>
       <c r="D528" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E528" t="s">
         <v>13</v>
@@ -16060,7 +16057,7 @@
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B529" t="s">
         <v>20</v>
@@ -16069,7 +16066,7 @@
         <v>21</v>
       </c>
       <c r="D529" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E529" t="s">
         <v>13</v>
@@ -16089,7 +16086,7 @@
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B530" t="s">
         <v>20</v>
@@ -16098,7 +16095,7 @@
         <v>21</v>
       </c>
       <c r="D530" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E530" t="s">
         <v>13</v>
@@ -16118,7 +16115,7 @@
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B531" t="s">
         <v>20</v>
@@ -16127,7 +16124,7 @@
         <v>21</v>
       </c>
       <c r="D531" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E531" t="s">
         <v>13</v>
@@ -16147,7 +16144,7 @@
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B532" t="s">
         <v>20</v>
@@ -16156,7 +16153,7 @@
         <v>21</v>
       </c>
       <c r="D532" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E532" t="s">
         <v>13</v>
@@ -16176,7 +16173,7 @@
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B533" t="s">
         <v>20</v>
@@ -16185,7 +16182,7 @@
         <v>21</v>
       </c>
       <c r="D533" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E533" t="s">
         <v>13</v>
@@ -16205,7 +16202,7 @@
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B534" t="s">
         <v>20</v>
@@ -16214,7 +16211,7 @@
         <v>21</v>
       </c>
       <c r="D534" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E534" t="s">
         <v>13</v>
@@ -16234,7 +16231,7 @@
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B535" t="s">
         <v>20</v>
@@ -16243,7 +16240,7 @@
         <v>21</v>
       </c>
       <c r="D535" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E535" t="s">
         <v>13</v>
@@ -16263,7 +16260,7 @@
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B536" t="s">
         <v>20</v>
@@ -16272,7 +16269,7 @@
         <v>21</v>
       </c>
       <c r="D536" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E536" t="s">
         <v>13</v>
@@ -16292,7 +16289,7 @@
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B537" t="s">
         <v>10</v>
@@ -16321,7 +16318,7 @@
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B538" t="s">
         <v>10</v>
@@ -16350,7 +16347,7 @@
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B539" t="s">
         <v>10</v>
@@ -16379,7 +16376,7 @@
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B540" t="s">
         <v>10</v>
@@ -16408,7 +16405,7 @@
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B541" t="s">
         <v>10</v>
@@ -16437,7 +16434,7 @@
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B542" t="s">
         <v>10</v>
@@ -16466,7 +16463,7 @@
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B543" t="s">
         <v>10</v>
@@ -16495,7 +16492,7 @@
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B544" t="s">
         <v>10</v>
@@ -16524,7 +16521,7 @@
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B545" t="s">
         <v>10</v>
@@ -16553,7 +16550,7 @@
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B546" t="s">
         <v>10</v>
@@ -16582,7 +16579,7 @@
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B547" t="s">
         <v>10</v>
@@ -16611,7 +16608,7 @@
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B548" t="s">
         <v>10</v>
@@ -16640,7 +16637,7 @@
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B549" t="s">
         <v>10</v>
@@ -16669,7 +16666,7 @@
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B550" t="s">
         <v>10</v>
@@ -16698,7 +16695,7 @@
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B551" t="s">
         <v>10</v>
@@ -16727,7 +16724,7 @@
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B552" t="s">
         <v>10</v>
@@ -16756,7 +16753,7 @@
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B553" t="s">
         <v>10</v>
@@ -16785,7 +16782,7 @@
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B554" t="s">
         <v>10</v>
@@ -16814,7 +16811,7 @@
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B555" t="s">
         <v>10</v>
@@ -16843,7 +16840,7 @@
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B556" t="s">
         <v>10</v>
@@ -16872,7 +16869,7 @@
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B557" t="s">
         <v>10</v>
@@ -16901,7 +16898,7 @@
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B558" t="s">
         <v>10</v>
@@ -16930,7 +16927,7 @@
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B559" t="s">
         <v>10</v>
@@ -16959,7 +16956,7 @@
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B560" t="s">
         <v>20</v>
@@ -16968,7 +16965,7 @@
         <v>21</v>
       </c>
       <c r="D560" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E560" t="s">
         <v>13</v>
@@ -16988,7 +16985,7 @@
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B561" t="s">
         <v>20</v>
@@ -16997,7 +16994,7 @@
         <v>21</v>
       </c>
       <c r="D561" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E561" t="s">
         <v>13</v>
@@ -17017,7 +17014,7 @@
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B562" t="s">
         <v>20</v>
@@ -17026,7 +17023,7 @@
         <v>21</v>
       </c>
       <c r="D562" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E562" t="s">
         <v>13</v>
@@ -17046,7 +17043,7 @@
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B563" t="s">
         <v>20</v>
@@ -17055,7 +17052,7 @@
         <v>21</v>
       </c>
       <c r="D563" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E563" t="s">
         <v>13</v>
@@ -17075,7 +17072,7 @@
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B564" t="s">
         <v>20</v>
@@ -17084,7 +17081,7 @@
         <v>21</v>
       </c>
       <c r="D564" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E564" t="s">
         <v>13</v>
@@ -17104,7 +17101,7 @@
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B565" t="s">
         <v>20</v>
@@ -17113,7 +17110,7 @@
         <v>21</v>
       </c>
       <c r="D565" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E565" t="s">
         <v>13</v>
@@ -17133,7 +17130,7 @@
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B566" t="s">
         <v>20</v>
@@ -17142,7 +17139,7 @@
         <v>21</v>
       </c>
       <c r="D566" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E566" t="s">
         <v>13</v>
@@ -17162,7 +17159,7 @@
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B567" t="s">
         <v>20</v>
@@ -17171,7 +17168,7 @@
         <v>21</v>
       </c>
       <c r="D567" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E567" t="s">
         <v>13</v>
@@ -17191,7 +17188,7 @@
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B568" t="s">
         <v>10</v>
@@ -17220,7 +17217,7 @@
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B569" t="s">
         <v>10</v>
@@ -17249,7 +17246,7 @@
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B570" t="s">
         <v>10</v>
@@ -17278,7 +17275,7 @@
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B571" t="s">
         <v>10</v>
@@ -17307,7 +17304,7 @@
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B572" t="s">
         <v>10</v>
@@ -17336,7 +17333,7 @@
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B573" t="s">
         <v>10</v>
@@ -17365,7 +17362,7 @@
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B574" t="s">
         <v>10</v>
@@ -17394,7 +17391,7 @@
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B575" t="s">
         <v>10</v>
@@ -17423,7 +17420,7 @@
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B576" t="s">
         <v>10</v>
@@ -17452,7 +17449,7 @@
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B577" t="s">
         <v>10</v>
@@ -17481,7 +17478,7 @@
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B578" t="s">
         <v>10</v>
@@ -17510,7 +17507,7 @@
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B579" t="s">
         <v>10</v>
@@ -17539,7 +17536,7 @@
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B580" t="s">
         <v>10</v>
@@ -17568,7 +17565,7 @@
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B581" t="s">
         <v>10</v>
@@ -17597,7 +17594,7 @@
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B582" t="s">
         <v>10</v>
@@ -17626,7 +17623,7 @@
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B583" t="s">
         <v>10</v>
@@ -17655,7 +17652,7 @@
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B584" t="s">
         <v>10</v>
@@ -17684,7 +17681,7 @@
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B585" t="s">
         <v>10</v>
@@ -17713,7 +17710,7 @@
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B586" t="s">
         <v>10</v>
@@ -17742,7 +17739,7 @@
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B587" t="s">
         <v>10</v>
@@ -17771,7 +17768,7 @@
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B588" t="s">
         <v>10</v>
@@ -17800,7 +17797,7 @@
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B589" t="s">
         <v>10</v>
@@ -17829,7 +17826,7 @@
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B590" t="s">
         <v>10</v>
@@ -17858,7 +17855,7 @@
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B591" t="s">
         <v>10</v>
@@ -17887,7 +17884,7 @@
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B592" t="s">
         <v>10</v>
@@ -17896,7 +17893,7 @@
         <v>21</v>
       </c>
       <c r="D592" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E592" t="s">
         <v>13</v>
@@ -17916,7 +17913,7 @@
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B593" t="s">
         <v>10</v>
@@ -17925,7 +17922,7 @@
         <v>21</v>
       </c>
       <c r="D593" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E593" t="s">
         <v>13</v>
@@ -17945,7 +17942,7 @@
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B594" t="s">
         <v>10</v>
@@ -17954,7 +17951,7 @@
         <v>21</v>
       </c>
       <c r="D594" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E594" t="s">
         <v>13</v>
@@ -17974,7 +17971,7 @@
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B595" t="s">
         <v>10</v>
@@ -17983,7 +17980,7 @@
         <v>21</v>
       </c>
       <c r="D595" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E595" t="s">
         <v>13</v>
@@ -18003,7 +18000,7 @@
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B596" t="s">
         <v>10</v>
@@ -18012,7 +18009,7 @@
         <v>21</v>
       </c>
       <c r="D596" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E596" t="s">
         <v>13</v>
@@ -18032,7 +18029,7 @@
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B597" t="s">
         <v>10</v>
@@ -18041,7 +18038,7 @@
         <v>21</v>
       </c>
       <c r="D597" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E597" t="s">
         <v>13</v>
@@ -18061,7 +18058,7 @@
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B598" t="s">
         <v>10</v>
@@ -18070,10 +18067,10 @@
         <v>11</v>
       </c>
       <c r="D598" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E598" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F598" t="s">
         <v>5</v>
@@ -18090,7 +18087,7 @@
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B599" t="s">
         <v>10</v>
@@ -18099,10 +18096,10 @@
         <v>11</v>
       </c>
       <c r="D599" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E599" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F599" t="s">
         <v>5</v>
@@ -18119,7 +18116,7 @@
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B600" t="s">
         <v>10</v>
@@ -18128,10 +18125,10 @@
         <v>11</v>
       </c>
       <c r="D600" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E600" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F600" t="s">
         <v>5</v>
@@ -18148,7 +18145,7 @@
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B601" t="s">
         <v>10</v>
@@ -18157,10 +18154,10 @@
         <v>11</v>
       </c>
       <c r="D601" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E601" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F601" t="s">
         <v>5</v>
@@ -18177,7 +18174,7 @@
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B602" t="s">
         <v>10</v>
@@ -18186,10 +18183,10 @@
         <v>11</v>
       </c>
       <c r="D602" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E602" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F602" t="s">
         <v>8</v>
@@ -18206,7 +18203,7 @@
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B603" t="s">
         <v>10</v>
@@ -18215,10 +18212,10 @@
         <v>11</v>
       </c>
       <c r="D603" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E603" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F603" t="s">
         <v>5</v>
@@ -18235,7 +18232,7 @@
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B604" t="s">
         <v>10</v>
@@ -18244,10 +18241,10 @@
         <v>11</v>
       </c>
       <c r="D604" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E604" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F604" t="s">
         <v>5</v>
@@ -18264,7 +18261,7 @@
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B605" t="s">
         <v>10</v>
@@ -18273,10 +18270,10 @@
         <v>11</v>
       </c>
       <c r="D605" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E605" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F605" t="s">
         <v>5</v>
@@ -18293,7 +18290,7 @@
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B606" t="s">
         <v>10</v>
@@ -18302,10 +18299,10 @@
         <v>11</v>
       </c>
       <c r="D606" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E606" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F606" t="s">
         <v>5</v>
@@ -18322,7 +18319,7 @@
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B607" t="s">
         <v>10</v>
@@ -18331,10 +18328,10 @@
         <v>11</v>
       </c>
       <c r="D607" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E607" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F607" t="s">
         <v>5</v>
@@ -18351,7 +18348,7 @@
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B608" t="s">
         <v>10</v>
@@ -18360,10 +18357,10 @@
         <v>11</v>
       </c>
       <c r="D608" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E608" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F608" t="s">
         <v>5</v>
@@ -18380,7 +18377,7 @@
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B609" t="s">
         <v>10</v>
@@ -18389,10 +18386,10 @@
         <v>11</v>
       </c>
       <c r="D609" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E609" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F609" t="s">
         <v>5</v>
@@ -18409,7 +18406,7 @@
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B610" t="s">
         <v>10</v>
@@ -18418,10 +18415,10 @@
         <v>11</v>
       </c>
       <c r="D610" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E610" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F610" t="s">
         <v>8</v>
@@ -18438,7 +18435,7 @@
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B611" t="s">
         <v>10</v>
@@ -18447,10 +18444,10 @@
         <v>11</v>
       </c>
       <c r="D611" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E611" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F611" t="s">
         <v>5</v>
@@ -18467,7 +18464,7 @@
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B612" t="s">
         <v>10</v>
@@ -18476,10 +18473,10 @@
         <v>11</v>
       </c>
       <c r="D612" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E612" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F612" t="s">
         <v>8</v>
@@ -18495,6 +18492,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I612" xr:uid="{E383BF24-2345-46A8-A77A-2A52503DF31C}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>

--- a/dataset_plataformas.xlsx
+++ b/dataset_plataformas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/la_oliveira_petrobras_com_br/Documents/Leandro/Cursos/Pós PUC - Ciência de Dados e Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{9CE09C67-332D-41A9-9B5F-472CB63F613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2438F51E-D3F7-4C76-B221-7188E79F24B9}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{9CE09C67-332D-41A9-9B5F-472CB63F613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA9167A-6381-4A0E-8868-1155C4BAADDC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA62ED42-65FA-4C1D-8BDF-522BBC4C5A5C}"/>
   </bookViews>
@@ -17,6 +17,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DADOS!$A$1:$I$612</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">DADOS!$I$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">DADOS!$I$2:$I$612</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">DADOS!$I$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">DADOS!$I$2:$I$612</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -365,12 +369,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -386,9 +396,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +738,7 @@
   <dimension ref="A1:I612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140"/>
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2595,8 +2606,8 @@
       <c r="H64">
         <v>30</v>
       </c>
-      <c r="I64" s="1">
-        <v>245</v>
+      <c r="I64" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -11817,8 +11828,8 @@
       <c r="H382">
         <v>9</v>
       </c>
-      <c r="I382" s="1">
-        <v>377</v>
+      <c r="I382" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.35">

--- a/dataset_plataformas.xlsx
+++ b/dataset_plataformas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/la_oliveira_petrobras_com_br/Documents/Leandro/Cursos/Pós PUC - Ciência de Dados e Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{9CE09C67-332D-41A9-9B5F-472CB63F613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA9167A-6381-4A0E-8868-1155C4BAADDC}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{9CE09C67-332D-41A9-9B5F-472CB63F613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10F8B2F-153E-4B17-829C-9CB768934431}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA62ED42-65FA-4C1D-8BDF-522BBC4C5A5C}"/>
   </bookViews>
@@ -16,11 +16,7 @@
     <sheet name="DADOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DADOS!$A$1:$I$612</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">DADOS!$I$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">DADOS!$I$2:$I$612</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">DADOS!$I$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">DADOS!$I$2:$I$612</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DADOS!$A$1:$G$612</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="102">
   <si>
     <t>TIPO</t>
   </si>
@@ -344,6 +340,12 @@
   <si>
     <t>IDADE</t>
   </si>
+  <si>
+    <t>FPU</t>
+  </si>
+  <si>
+    <t>TLWP</t>
+  </si>
 </sst>
 </file>
 
@@ -369,18 +371,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -399,7 +395,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,26 +731,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E383BF24-2345-46A8-A77A-2A52503DF31C}">
-  <dimension ref="A1:I612"/>
+  <dimension ref="A1:J612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" customWidth="1"/>
     <col min="5" max="5" width="8.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -783,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -811,8 +807,9 @@
       <c r="I2" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -840,8 +837,9 @@
       <c r="I3" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -869,8 +867,9 @@
       <c r="I4" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -898,8 +897,9 @@
       <c r="I5" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -927,8 +927,9 @@
       <c r="I6" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -956,8 +957,9 @@
       <c r="I7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -985,8 +987,9 @@
       <c r="I8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1012,10 +1015,11 @@
         <v>11</v>
       </c>
       <c r="I9" s="1">
-        <v>2.979178240741021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1041,10 +1045,11 @@
         <v>11</v>
       </c>
       <c r="I10" s="1">
-        <v>5.0208449074052623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1072,8 +1077,9 @@
       <c r="I11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1099,10 +1105,11 @@
         <v>6</v>
       </c>
       <c r="I12" s="1">
-        <v>2.520821759258979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1130,8 +1137,9 @@
       <c r="I13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1157,10 +1165,11 @@
         <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>1.9999884259304963</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1186,10 +1195,11 @@
         <v>6</v>
       </c>
       <c r="I15" s="1">
-        <v>2.3125115740695037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1215,10 +1225,11 @@
         <v>6</v>
       </c>
       <c r="I16" s="1">
-        <v>3.041678240741021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1246,8 +1257,9 @@
       <c r="I17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1275,8 +1287,9 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1304,8 +1317,9 @@
       <c r="I19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1333,8 +1347,9 @@
       <c r="I20" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1362,8 +1377,9 @@
       <c r="I21" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1391,8 +1407,9 @@
       <c r="I22" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1420,8 +1437,9 @@
       <c r="I23" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1447,10 +1465,11 @@
         <v>11</v>
       </c>
       <c r="I24" s="1">
-        <v>88.291666666664241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1478,8 +1497,9 @@
       <c r="I25" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1507,8 +1527,9 @@
       <c r="I26" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1536,8 +1557,9 @@
       <c r="I27" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1565,8 +1587,9 @@
       <c r="I28" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1617,9 @@
       <c r="I29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1621,10 +1645,11 @@
         <v>27</v>
       </c>
       <c r="I30" s="1">
-        <v>4.041678240741021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1652,8 +1677,9 @@
       <c r="I31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1681,8 +1707,9 @@
       <c r="I32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1710,8 +1737,9 @@
       <c r="I33" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1739,8 +1767,9 @@
       <c r="I34" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1768,8 +1797,9 @@
       <c r="I35" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1797,8 +1827,9 @@
       <c r="I36" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1826,8 +1857,9 @@
       <c r="I37" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1855,8 +1887,9 @@
       <c r="I38" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1884,8 +1917,9 @@
       <c r="I39" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1913,8 +1947,9 @@
       <c r="I40" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1942,8 +1977,9 @@
       <c r="I41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1971,8 +2007,9 @@
       <c r="I42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2000,8 +2037,9 @@
       <c r="I43" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -2029,8 +2067,9 @@
       <c r="I44" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2058,8 +2097,9 @@
       <c r="I45" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2085,10 +2125,11 @@
         <v>28</v>
       </c>
       <c r="I46" s="1">
-        <v>4.6666666666642413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2116,8 +2157,9 @@
       <c r="I47" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -2143,10 +2185,11 @@
         <v>28</v>
       </c>
       <c r="I48" s="1">
-        <v>2.3055555555547471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2174,8 +2217,9 @@
       <c r="I49" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -2201,10 +2245,11 @@
         <v>29</v>
       </c>
       <c r="I50" s="1">
-        <v>2.3854166666642413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -2232,8 +2277,9 @@
       <c r="I51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -2259,10 +2305,11 @@
         <v>18</v>
       </c>
       <c r="I52" s="1">
-        <v>2.0000115740695037</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -2290,8 +2337,9 @@
       <c r="I53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -2319,8 +2367,9 @@
       <c r="I54" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -2348,8 +2397,9 @@
       <c r="I55" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -2377,8 +2427,9 @@
       <c r="I56" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -2406,8 +2457,9 @@
       <c r="I57" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -2435,8 +2487,9 @@
       <c r="I58" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -2462,10 +2515,11 @@
         <v>25</v>
       </c>
       <c r="I59" s="1">
-        <v>45.576388888890506</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -2493,8 +2547,9 @@
       <c r="I60" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -2522,8 +2577,9 @@
       <c r="I61" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2551,8 +2607,9 @@
       <c r="I62" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -2580,8 +2637,9 @@
       <c r="I63" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -2606,11 +2664,12 @@
       <c r="H64">
         <v>30</v>
       </c>
-      <c r="I64" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="1">
+        <v>245</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -2638,8 +2697,9 @@
       <c r="I65" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -2667,8 +2727,9 @@
       <c r="I66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -2696,8 +2757,9 @@
       <c r="I67" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -2725,8 +2787,9 @@
       <c r="I68" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -2754,8 +2817,9 @@
       <c r="I69" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2781,10 +2845,11 @@
         <v>17</v>
       </c>
       <c r="I70" s="1">
-        <v>3.958321759258979</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -2812,8 +2877,9 @@
       <c r="I71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -2841,8 +2907,9 @@
       <c r="I72" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>31</v>
       </c>
@@ -2870,8 +2937,9 @@
       <c r="I73" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -2899,8 +2967,9 @@
       <c r="I74" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -2928,8 +2997,9 @@
       <c r="I75" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -2957,8 +3027,9 @@
       <c r="I76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -2986,8 +3057,9 @@
       <c r="I77" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -3015,8 +3087,9 @@
       <c r="I78" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -3044,8 +3117,9 @@
       <c r="I79" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -3073,8 +3147,9 @@
       <c r="I80" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -3102,8 +3177,9 @@
       <c r="I81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -3131,8 +3207,9 @@
       <c r="I82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -3160,8 +3237,9 @@
       <c r="I83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -3189,8 +3267,9 @@
       <c r="I84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -3218,8 +3297,9 @@
       <c r="I85" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -3247,8 +3327,9 @@
       <c r="I86" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -3276,8 +3357,9 @@
       <c r="I87" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -3305,8 +3387,9 @@
       <c r="I88" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -3332,10 +3415,11 @@
         <v>20</v>
       </c>
       <c r="I89" s="1">
-        <v>8.0145833333299379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -3361,10 +3445,11 @@
         <v>20</v>
       </c>
       <c r="I90" s="1">
-        <v>1.0069444444452529</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -3392,8 +3477,9 @@
       <c r="I91" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -3419,10 +3505,11 @@
         <v>20</v>
       </c>
       <c r="I92" s="1">
-        <v>74.291666666664241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -3450,8 +3537,9 @@
       <c r="I93" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -3479,8 +3567,9 @@
       <c r="I94" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -3508,8 +3597,9 @@
       <c r="I95" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -3537,8 +3627,9 @@
       <c r="I96" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -3566,8 +3657,9 @@
       <c r="I97" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -3595,8 +3687,9 @@
       <c r="I98" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -3624,8 +3717,9 @@
       <c r="I99" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -3653,8 +3747,9 @@
       <c r="I100" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -3682,8 +3777,9 @@
       <c r="I101" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3711,8 +3807,9 @@
       <c r="I102" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -3740,8 +3837,9 @@
       <c r="I103" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>34</v>
       </c>
@@ -3769,8 +3867,9 @@
       <c r="I104" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>34</v>
       </c>
@@ -3798,8 +3897,9 @@
       <c r="I105" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -3827,8 +3927,9 @@
       <c r="I106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>34</v>
       </c>
@@ -3856,8 +3957,9 @@
       <c r="I107" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -3885,8 +3987,9 @@
       <c r="I108" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -3914,8 +4017,9 @@
       <c r="I109" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -3943,8 +4047,9 @@
       <c r="I110" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -3972,8 +4077,9 @@
       <c r="I111" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -4001,8 +4107,9 @@
       <c r="I112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -4030,8 +4137,9 @@
       <c r="I113" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -4059,8 +4167,9 @@
       <c r="I114" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -4088,8 +4197,9 @@
       <c r="I115" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -4117,8 +4227,9 @@
       <c r="I116" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>35</v>
       </c>
@@ -4144,10 +4255,11 @@
         <v>12</v>
       </c>
       <c r="I117" s="1">
-        <v>5.0437499999970896</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>35</v>
       </c>
@@ -4175,8 +4287,9 @@
       <c r="I118" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>35</v>
       </c>
@@ -4204,8 +4317,9 @@
       <c r="I119" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>35</v>
       </c>
@@ -4233,8 +4347,9 @@
       <c r="I120" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>35</v>
       </c>
@@ -4262,8 +4377,9 @@
       <c r="I121" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -4291,8 +4407,9 @@
       <c r="I122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>35</v>
       </c>
@@ -4320,8 +4437,9 @@
       <c r="I123" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>35</v>
       </c>
@@ -4349,8 +4467,9 @@
       <c r="I124" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -4376,10 +4495,11 @@
         <v>6</v>
       </c>
       <c r="I125" s="1">
-        <v>14.041678240741021</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -4405,10 +4525,11 @@
         <v>6</v>
       </c>
       <c r="I126" s="1">
-        <v>3.875</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -4436,8 +4557,9 @@
       <c r="I127" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -4463,10 +4585,11 @@
         <v>12</v>
       </c>
       <c r="I128" s="1">
-        <v>70.291666666664241</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -4494,8 +4617,9 @@
       <c r="I129" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -4523,8 +4647,9 @@
       <c r="I130" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -4552,8 +4677,9 @@
       <c r="I131" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -4581,8 +4707,9 @@
       <c r="I132" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -4610,13 +4737,14 @@
       <c r="I133" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>37</v>
       </c>
       <c r="B134" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
@@ -4639,13 +4767,14 @@
       <c r="I134" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>37</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C135" t="s">
         <v>21</v>
@@ -4666,15 +4795,16 @@
         <v>7</v>
       </c>
       <c r="I135" s="1">
-        <v>11.041666666664241</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>37</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C136" t="s">
         <v>21</v>
@@ -4695,15 +4825,16 @@
         <v>9</v>
       </c>
       <c r="I136" s="1">
-        <v>2.4798611111109494</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>37</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C137" t="s">
         <v>21</v>
@@ -4726,13 +4857,14 @@
       <c r="I137" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>37</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
@@ -4753,15 +4885,16 @@
         <v>9</v>
       </c>
       <c r="I138" s="1">
-        <v>2.9979166666671517</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C139" t="s">
         <v>21</v>
@@ -4784,13 +4917,14 @@
       <c r="I139" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>37</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
@@ -4813,13 +4947,14 @@
       <c r="I140" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>37</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
@@ -4842,13 +4977,14 @@
       <c r="I141" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>37</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
@@ -4871,13 +5007,14 @@
       <c r="I142" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>37</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
@@ -4900,13 +5037,14 @@
       <c r="I143" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>37</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
@@ -4929,13 +5067,14 @@
       <c r="I144" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>37</v>
       </c>
       <c r="B145" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C145" t="s">
         <v>21</v>
@@ -4958,13 +5097,14 @@
       <c r="I145" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
         <v>21</v>
@@ -4987,8 +5127,9 @@
       <c r="I146" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>38</v>
       </c>
@@ -5014,10 +5155,11 @@
         <v>4</v>
       </c>
       <c r="I147" s="1">
-        <v>11.750011574069504</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>38</v>
       </c>
@@ -5045,8 +5187,9 @@
       <c r="I148" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>38</v>
       </c>
@@ -5074,8 +5217,9 @@
       <c r="I149" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>38</v>
       </c>
@@ -5103,8 +5247,9 @@
       <c r="I150" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -5130,10 +5275,11 @@
         <v>10</v>
       </c>
       <c r="I151" s="1">
-        <v>108.29166666666424</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>38</v>
       </c>
@@ -5161,8 +5307,9 @@
       <c r="I152" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>38</v>
       </c>
@@ -5190,8 +5337,9 @@
       <c r="I153" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -5219,8 +5367,9 @@
       <c r="I154" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>38</v>
       </c>
@@ -5248,8 +5397,9 @@
       <c r="I155" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>38</v>
       </c>
@@ -5277,8 +5427,9 @@
       <c r="I156" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>38</v>
       </c>
@@ -5306,8 +5457,9 @@
       <c r="I157" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>38</v>
       </c>
@@ -5335,13 +5487,14 @@
       <c r="I158" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>40</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
@@ -5364,13 +5517,14 @@
       <c r="I159" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>40</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C160" t="s">
         <v>21</v>
@@ -5393,8 +5547,9 @@
       <c r="I160" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>41</v>
       </c>
@@ -5422,8 +5577,9 @@
       <c r="I161" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -5451,8 +5607,9 @@
       <c r="I162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>43</v>
       </c>
@@ -5480,8 +5637,9 @@
       <c r="I163" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>43</v>
       </c>
@@ -5509,8 +5667,9 @@
       <c r="I164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>43</v>
       </c>
@@ -5538,8 +5697,9 @@
       <c r="I165" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>43</v>
       </c>
@@ -5567,8 +5727,9 @@
       <c r="I166" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>45</v>
       </c>
@@ -5596,8 +5757,9 @@
       <c r="I167" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>45</v>
       </c>
@@ -5625,8 +5787,9 @@
       <c r="I168" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -5654,8 +5817,9 @@
       <c r="I169" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>46</v>
       </c>
@@ -5683,8 +5847,9 @@
       <c r="I170" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -5712,8 +5877,9 @@
       <c r="I171" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>46</v>
       </c>
@@ -5741,8 +5907,9 @@
       <c r="I172" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>47</v>
       </c>
@@ -5770,8 +5937,9 @@
       <c r="I173" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -5799,8 +5967,9 @@
       <c r="I174" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J174" s="2"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -5828,8 +5997,9 @@
       <c r="I175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -5857,8 +6027,9 @@
       <c r="I176" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -5886,8 +6057,9 @@
       <c r="I177" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>49</v>
       </c>
@@ -5913,10 +6085,11 @@
         <v>34</v>
       </c>
       <c r="I178" s="1">
-        <v>2.958356481482042</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -5944,8 +6117,9 @@
       <c r="I179" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -5973,8 +6147,9 @@
       <c r="I180" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>49</v>
       </c>
@@ -6002,8 +6177,9 @@
       <c r="I181" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>50</v>
       </c>
@@ -6031,8 +6207,9 @@
       <c r="I182" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>50</v>
       </c>
@@ -6060,8 +6237,9 @@
       <c r="I183" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>50</v>
       </c>
@@ -6089,8 +6267,9 @@
       <c r="I184" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>51</v>
       </c>
@@ -6118,8 +6297,9 @@
       <c r="I185" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>51</v>
       </c>
@@ -6147,8 +6327,9 @@
       <c r="I186" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>51</v>
       </c>
@@ -6176,8 +6357,9 @@
       <c r="I187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>51</v>
       </c>
@@ -6205,8 +6387,9 @@
       <c r="I188" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>51</v>
       </c>
@@ -6234,8 +6417,9 @@
       <c r="I189" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>52</v>
       </c>
@@ -6263,8 +6447,9 @@
       <c r="I190" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>52</v>
       </c>
@@ -6290,10 +6475,11 @@
         <v>31</v>
       </c>
       <c r="I191" s="1">
-        <v>42.915277777778101</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>52</v>
       </c>
@@ -6321,8 +6507,9 @@
       <c r="I192" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>53</v>
       </c>
@@ -6350,8 +6537,9 @@
       <c r="I193" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>53</v>
       </c>
@@ -6379,8 +6567,9 @@
       <c r="I194" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>53</v>
       </c>
@@ -6408,8 +6597,9 @@
       <c r="I195" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>54</v>
       </c>
@@ -6437,8 +6627,9 @@
       <c r="I196" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>54</v>
       </c>
@@ -6466,8 +6657,9 @@
       <c r="I197" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>55</v>
       </c>
@@ -6495,8 +6687,9 @@
       <c r="I198" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>55</v>
       </c>
@@ -6524,8 +6717,9 @@
       <c r="I199" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -6553,8 +6747,9 @@
       <c r="I200" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>56</v>
       </c>
@@ -6580,10 +6775,11 @@
         <v>30</v>
       </c>
       <c r="I201" s="1">
-        <v>49.836111111115315</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>56</v>
       </c>
@@ -6611,8 +6807,9 @@
       <c r="I202" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>57</v>
       </c>
@@ -6640,8 +6837,9 @@
       <c r="I203" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>57</v>
       </c>
@@ -6667,10 +6865,11 @@
         <v>3</v>
       </c>
       <c r="I204" s="1">
-        <v>14.451388888890506</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>57</v>
       </c>
@@ -6696,10 +6895,11 @@
         <v>4</v>
       </c>
       <c r="I205" s="1">
-        <v>11.785416666665697</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>57</v>
       </c>
@@ -6725,10 +6925,11 @@
         <v>5</v>
       </c>
       <c r="I206" s="1">
-        <v>13.219444444446708</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>57</v>
       </c>
@@ -6756,8 +6957,9 @@
       <c r="I207" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>57</v>
       </c>
@@ -6785,8 +6987,9 @@
       <c r="I208" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>57</v>
       </c>
@@ -6814,8 +7017,9 @@
       <c r="I209" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>57</v>
       </c>
@@ -6843,8 +7047,9 @@
       <c r="I210" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>57</v>
       </c>
@@ -6872,8 +7077,9 @@
       <c r="I211" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>57</v>
       </c>
@@ -6899,10 +7105,11 @@
         <v>9</v>
       </c>
       <c r="I212" s="1">
-        <v>15.303472222221899</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="J212" s="2"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>57</v>
       </c>
@@ -6930,8 +7137,9 @@
       <c r="I213" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J213" s="2"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>57</v>
       </c>
@@ -6959,8 +7167,9 @@
       <c r="I214" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J214" s="2"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>57</v>
       </c>
@@ -6988,8 +7197,9 @@
       <c r="I215" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>57</v>
       </c>
@@ -7015,10 +7225,11 @@
         <v>11</v>
       </c>
       <c r="I216" s="1">
-        <v>14.665972222217533</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>57</v>
       </c>
@@ -7046,8 +7257,9 @@
       <c r="I217" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J217" s="2"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>57</v>
       </c>
@@ -7075,8 +7287,9 @@
       <c r="I218" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>57</v>
       </c>
@@ -7104,8 +7317,9 @@
       <c r="I219" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J219" s="2"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>57</v>
       </c>
@@ -7133,8 +7347,9 @@
       <c r="I220" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>57</v>
       </c>
@@ -7162,8 +7377,9 @@
       <c r="I221" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>57</v>
       </c>
@@ -7191,8 +7407,9 @@
       <c r="I222" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J222" s="2"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>57</v>
       </c>
@@ -7220,8 +7437,9 @@
       <c r="I223" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J223" s="2"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>57</v>
       </c>
@@ -7247,10 +7465,11 @@
         <v>15</v>
       </c>
       <c r="I224" s="1">
-        <v>1.1736111111167702</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>57</v>
       </c>
@@ -7278,8 +7497,9 @@
       <c r="I225" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J225" s="2"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>57</v>
       </c>
@@ -7307,8 +7527,9 @@
       <c r="I226" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J226" s="2"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>57</v>
       </c>
@@ -7336,8 +7557,9 @@
       <c r="I227" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J227" s="2"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>57</v>
       </c>
@@ -7365,8 +7587,9 @@
       <c r="I228" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J228" s="2"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>57</v>
       </c>
@@ -7394,8 +7617,9 @@
       <c r="I229" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>59</v>
       </c>
@@ -7423,8 +7647,9 @@
       <c r="I230" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>59</v>
       </c>
@@ -7452,8 +7677,9 @@
       <c r="I231" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>59</v>
       </c>
@@ -7479,10 +7705,11 @@
         <v>6</v>
       </c>
       <c r="I232" s="1">
-        <v>7.820833333338669</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>59</v>
       </c>
@@ -7510,8 +7737,9 @@
       <c r="I233" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>59</v>
       </c>
@@ -7539,8 +7767,9 @@
       <c r="I234" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J234" s="2"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>59</v>
       </c>
@@ -7566,10 +7795,11 @@
         <v>7</v>
       </c>
       <c r="I235" s="1">
-        <v>8.8854166666642413</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="J235" s="2"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>60</v>
       </c>
@@ -7597,8 +7827,9 @@
       <c r="I236" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J236" s="2"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>60</v>
       </c>
@@ -7626,8 +7857,9 @@
       <c r="I237" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J237" s="2"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>60</v>
       </c>
@@ -7655,8 +7887,9 @@
       <c r="I238" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J238" s="2"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>60</v>
       </c>
@@ -7682,10 +7915,11 @@
         <v>5</v>
       </c>
       <c r="I239" s="1">
-        <v>8.9694444444394321</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="J239" s="2"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>60</v>
       </c>
@@ -7713,8 +7947,9 @@
       <c r="I240" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J240" s="2"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>60</v>
       </c>
@@ -7742,8 +7977,9 @@
       <c r="I241" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J241" s="2"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>60</v>
       </c>
@@ -7771,8 +8007,9 @@
       <c r="I242" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J242" s="2"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>60</v>
       </c>
@@ -7800,8 +8037,9 @@
       <c r="I243" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J243" s="2"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>60</v>
       </c>
@@ -7829,8 +8067,9 @@
       <c r="I244" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J244" s="2"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>60</v>
       </c>
@@ -7858,8 +8097,9 @@
       <c r="I245" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J245" s="2"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>60</v>
       </c>
@@ -7887,8 +8127,9 @@
       <c r="I246" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J246" s="2"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>60</v>
       </c>
@@ -7916,8 +8157,9 @@
       <c r="I247" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J247" s="2"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>60</v>
       </c>
@@ -7945,8 +8187,9 @@
       <c r="I248" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J248" s="2"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>60</v>
       </c>
@@ -7974,8 +8217,9 @@
       <c r="I249" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J249" s="2"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>60</v>
       </c>
@@ -8003,8 +8247,9 @@
       <c r="I250" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J250" s="2"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -8032,8 +8277,9 @@
       <c r="I251" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J251" s="2"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -8061,8 +8307,9 @@
       <c r="I252" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J252" s="2"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>60</v>
       </c>
@@ -8090,8 +8337,9 @@
       <c r="I253" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J253" s="2"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>61</v>
       </c>
@@ -8119,8 +8367,9 @@
       <c r="I254" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J254" s="2"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>61</v>
       </c>
@@ -8148,8 +8397,9 @@
       <c r="I255" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J255" s="2"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>61</v>
       </c>
@@ -8177,8 +8427,9 @@
       <c r="I256" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J256" s="2"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>61</v>
       </c>
@@ -8206,8 +8457,9 @@
       <c r="I257" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J257" s="2"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>61</v>
       </c>
@@ -8235,8 +8487,9 @@
       <c r="I258" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J258" s="2"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>61</v>
       </c>
@@ -8264,8 +8517,9 @@
       <c r="I259" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J259" s="2"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -8293,8 +8547,9 @@
       <c r="I260" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J260" s="2"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>61</v>
       </c>
@@ -8322,8 +8577,9 @@
       <c r="I261" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J261" s="2"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>61</v>
       </c>
@@ -8351,8 +8607,9 @@
       <c r="I262" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J262" s="2"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>61</v>
       </c>
@@ -8380,8 +8637,9 @@
       <c r="I263" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J263" s="2"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>61</v>
       </c>
@@ -8409,8 +8667,9 @@
       <c r="I264" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J264" s="2"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>62</v>
       </c>
@@ -8438,8 +8697,9 @@
       <c r="I265" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J265" s="2"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>62</v>
       </c>
@@ -8467,8 +8727,9 @@
       <c r="I266" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J266" s="2"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>62</v>
       </c>
@@ -8496,8 +8757,9 @@
       <c r="I267" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J267" s="2"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>62</v>
       </c>
@@ -8525,8 +8787,9 @@
       <c r="I268" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J268" s="2"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>62</v>
       </c>
@@ -8554,8 +8817,9 @@
       <c r="I269" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J269" s="2"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>62</v>
       </c>
@@ -8583,8 +8847,9 @@
       <c r="I270" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J270" s="2"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>62</v>
       </c>
@@ -8612,8 +8877,9 @@
       <c r="I271" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J271" s="2"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>62</v>
       </c>
@@ -8641,8 +8907,9 @@
       <c r="I272" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J272" s="2"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>62</v>
       </c>
@@ -8670,8 +8937,9 @@
       <c r="I273" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J273" s="2"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>62</v>
       </c>
@@ -8699,8 +8967,9 @@
       <c r="I274" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J274" s="2"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>62</v>
       </c>
@@ -8728,8 +8997,9 @@
       <c r="I275" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J275" s="2"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>62</v>
       </c>
@@ -8757,8 +9027,9 @@
       <c r="I276" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J276" s="2"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>62</v>
       </c>
@@ -8786,8 +9057,9 @@
       <c r="I277" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J277" s="2"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>62</v>
       </c>
@@ -8813,10 +9085,11 @@
         <v>11</v>
       </c>
       <c r="I278" s="1">
-        <v>1.0763888888905058</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J278" s="2"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>62</v>
       </c>
@@ -8844,8 +9117,9 @@
       <c r="I279" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J279" s="2"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>62</v>
       </c>
@@ -8873,8 +9147,9 @@
       <c r="I280" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J280" s="2"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>62</v>
       </c>
@@ -8902,8 +9177,9 @@
       <c r="I281" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J281" s="2"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>62</v>
       </c>
@@ -8931,8 +9207,9 @@
       <c r="I282" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J282" s="2"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>62</v>
       </c>
@@ -8960,8 +9237,9 @@
       <c r="I283" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J283" s="2"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>63</v>
       </c>
@@ -8989,8 +9267,9 @@
       <c r="I284" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J284" s="2"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>63</v>
       </c>
@@ -9018,8 +9297,9 @@
       <c r="I285" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J285" s="2"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>63</v>
       </c>
@@ -9045,10 +9325,11 @@
         <v>3</v>
       </c>
       <c r="I286" s="1">
-        <v>8.6569444444394321</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="J286" s="2"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>63</v>
       </c>
@@ -9076,8 +9357,9 @@
       <c r="I287" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J287" s="2"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>63</v>
       </c>
@@ -9105,8 +9387,9 @@
       <c r="I288" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J288" s="2"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>63</v>
       </c>
@@ -9132,10 +9415,11 @@
         <v>5</v>
       </c>
       <c r="I289" s="1">
-        <v>7.4305555555547471</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J289" s="2"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>63</v>
       </c>
@@ -9163,8 +9447,9 @@
       <c r="I290" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J290" s="2"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>63</v>
       </c>
@@ -9192,8 +9477,9 @@
       <c r="I291" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J291" s="2"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>63</v>
       </c>
@@ -9221,8 +9507,9 @@
       <c r="I292" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J292" s="2"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>63</v>
       </c>
@@ -9250,8 +9537,9 @@
       <c r="I293" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J293" s="2"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>63</v>
       </c>
@@ -9279,8 +9567,9 @@
       <c r="I294" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J294" s="2"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>63</v>
       </c>
@@ -9308,8 +9597,9 @@
       <c r="I295" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J295" s="2"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>63</v>
       </c>
@@ -9337,8 +9627,9 @@
       <c r="I296" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J296" s="2"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>63</v>
       </c>
@@ -9366,8 +9657,9 @@
       <c r="I297" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J297" s="2"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>63</v>
       </c>
@@ -9395,8 +9687,9 @@
       <c r="I298" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J298" s="2"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>63</v>
       </c>
@@ -9424,8 +9717,9 @@
       <c r="I299" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J299" s="2"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>63</v>
       </c>
@@ -9453,8 +9747,9 @@
       <c r="I300" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J300" s="2"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>63</v>
       </c>
@@ -9482,8 +9777,9 @@
       <c r="I301" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J301" s="2"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>63</v>
       </c>
@@ -9511,8 +9807,9 @@
       <c r="I302" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J302" s="2"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>63</v>
       </c>
@@ -9540,8 +9837,9 @@
       <c r="I303" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J303" s="2"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>64</v>
       </c>
@@ -9567,10 +9865,11 @@
         <v>2</v>
       </c>
       <c r="I304" s="1">
-        <v>4.1729166666700621</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="J304" s="2"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>64</v>
       </c>
@@ -9598,8 +9897,9 @@
       <c r="I305" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J305" s="2"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>64</v>
       </c>
@@ -9625,10 +9925,11 @@
         <v>5</v>
       </c>
       <c r="I306" s="1">
-        <v>1.6763888888890506</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J306" s="2"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>64</v>
       </c>
@@ -9656,8 +9957,9 @@
       <c r="I307" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J307" s="2"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>64</v>
       </c>
@@ -9685,8 +9987,9 @@
       <c r="I308" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J308" s="2"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>64</v>
       </c>
@@ -9712,10 +10015,11 @@
         <v>6</v>
       </c>
       <c r="I309" s="1">
-        <v>13.941666666665697</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="J309" s="2"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>64</v>
       </c>
@@ -9743,8 +10047,9 @@
       <c r="I310" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J310" s="2"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>64</v>
       </c>
@@ -9772,8 +10077,9 @@
       <c r="I311" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J311" s="2"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>64</v>
       </c>
@@ -9801,8 +10107,9 @@
       <c r="I312" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J312" s="2"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>64</v>
       </c>
@@ -9828,10 +10135,11 @@
         <v>7</v>
       </c>
       <c r="I313" s="1">
-        <v>5.4569444444423425</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="J313" s="2"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>64</v>
       </c>
@@ -9857,10 +10165,11 @@
         <v>9</v>
       </c>
       <c r="I314" s="1">
-        <v>14.489583333335759</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J314" s="2"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>64</v>
       </c>
@@ -9888,8 +10197,9 @@
       <c r="I315" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J315" s="2"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>64</v>
       </c>
@@ -9917,8 +10227,9 @@
       <c r="I316" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J316" s="2"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>64</v>
       </c>
@@ -9946,8 +10257,9 @@
       <c r="I317" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J317" s="2"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>64</v>
       </c>
@@ -9975,8 +10287,9 @@
       <c r="I318" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J318" s="2"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>64</v>
       </c>
@@ -10004,8 +10317,9 @@
       <c r="I319" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J319" s="2"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>64</v>
       </c>
@@ -10033,8 +10347,9 @@
       <c r="I320" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J320" s="2"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>64</v>
       </c>
@@ -10062,8 +10377,9 @@
       <c r="I321" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J321" s="2"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>64</v>
       </c>
@@ -10089,10 +10405,11 @@
         <v>12</v>
       </c>
       <c r="I322" s="1">
-        <v>10.71875</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="J322" s="2"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>64</v>
       </c>
@@ -10120,8 +10437,9 @@
       <c r="I323" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J323" s="2"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>64</v>
       </c>
@@ -10149,8 +10467,9 @@
       <c r="I324" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J324" s="2"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>64</v>
       </c>
@@ -10178,8 +10497,9 @@
       <c r="I325" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J325" s="2"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>64</v>
       </c>
@@ -10205,10 +10525,11 @@
         <v>13</v>
       </c>
       <c r="I326" s="1">
-        <v>6.6423611111167702</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="J326" s="2"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>64</v>
       </c>
@@ -10236,8 +10557,9 @@
       <c r="I327" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J327" s="2"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>65</v>
       </c>
@@ -10265,8 +10587,9 @@
       <c r="I328" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J328" s="2"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>65</v>
       </c>
@@ -10292,10 +10615,11 @@
         <v>4</v>
       </c>
       <c r="I329" s="1">
-        <v>1.0104166666642413</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J329" s="2"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>65</v>
       </c>
@@ -10323,8 +10647,9 @@
       <c r="I330" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J330" s="2"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>66</v>
       </c>
@@ -10350,10 +10675,11 @@
         <v>2</v>
       </c>
       <c r="I331" s="1">
-        <v>6.0270833333343035</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="J331" s="2"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>66</v>
       </c>
@@ -10381,8 +10707,9 @@
       <c r="I332" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J332" s="2"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>66</v>
       </c>
@@ -10408,10 +10735,11 @@
         <v>2</v>
       </c>
       <c r="I333" s="1">
-        <v>3.2875000000058208</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="J333" s="2"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>66</v>
       </c>
@@ -10439,8 +10767,9 @@
       <c r="I334" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J334" s="2"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>66</v>
       </c>
@@ -10468,8 +10797,9 @@
       <c r="I335" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J335" s="2"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>66</v>
       </c>
@@ -10497,8 +10827,9 @@
       <c r="I336" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J336" s="2"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>66</v>
       </c>
@@ -10524,10 +10855,11 @@
         <v>6</v>
       </c>
       <c r="I337" s="1">
-        <v>17.632638888891961</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="J337" s="2"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>66</v>
       </c>
@@ -10553,10 +10885,11 @@
         <v>7</v>
       </c>
       <c r="I338" s="1">
-        <v>7.9444444444452529</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J338" s="2"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>66</v>
       </c>
@@ -10584,8 +10917,9 @@
       <c r="I339" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J339" s="2"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>66</v>
       </c>
@@ -10613,8 +10947,9 @@
       <c r="I340" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J340" s="2"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>66</v>
       </c>
@@ -10642,8 +10977,9 @@
       <c r="I341" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J341" s="2"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>66</v>
       </c>
@@ -10671,8 +11007,9 @@
       <c r="I342" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J342" s="2"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>66</v>
       </c>
@@ -10700,8 +11037,9 @@
       <c r="I343" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J343" s="2"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>66</v>
       </c>
@@ -10729,8 +11067,9 @@
       <c r="I344" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J344" s="2"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>66</v>
       </c>
@@ -10758,8 +11097,9 @@
       <c r="I345" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J345" s="2"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>66</v>
       </c>
@@ -10787,8 +11127,9 @@
       <c r="I346" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J346" s="2"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>66</v>
       </c>
@@ -10814,10 +11155,11 @@
         <v>12</v>
       </c>
       <c r="I347" s="1">
-        <v>18.159722222218988</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="J347" s="2"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>66</v>
       </c>
@@ -10843,10 +11185,11 @@
         <v>12</v>
       </c>
       <c r="I348" s="1">
-        <v>18.813194444446708</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="J348" s="2"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>67</v>
       </c>
@@ -10874,8 +11217,9 @@
       <c r="I349" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J349" s="2"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>67</v>
       </c>
@@ -10903,8 +11247,9 @@
       <c r="I350" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J350" s="2"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>67</v>
       </c>
@@ -10930,10 +11275,11 @@
         <v>3</v>
       </c>
       <c r="I351" s="1">
-        <v>2.304166666661331</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J351" s="2"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>67</v>
       </c>
@@ -10959,10 +11305,11 @@
         <v>4</v>
       </c>
       <c r="I352" s="1">
-        <v>8.1673611111109494</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="J352" s="2"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>67</v>
       </c>
@@ -10990,8 +11337,9 @@
       <c r="I353" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J353" s="2"/>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>67</v>
       </c>
@@ -11019,8 +11367,9 @@
       <c r="I354" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J354" s="2"/>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>67</v>
       </c>
@@ -11048,8 +11397,9 @@
       <c r="I355" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J355" s="2"/>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>67</v>
       </c>
@@ -11077,8 +11427,9 @@
       <c r="I356" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J356" s="2"/>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>67</v>
       </c>
@@ -11104,10 +11455,11 @@
         <v>7</v>
       </c>
       <c r="I357" s="1">
-        <v>1.398611111108039</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J357" s="2"/>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>67</v>
       </c>
@@ -11135,8 +11487,9 @@
       <c r="I358" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J358" s="2"/>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>67</v>
       </c>
@@ -11164,8 +11517,9 @@
       <c r="I359" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J359" s="2"/>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>67</v>
       </c>
@@ -11193,8 +11547,9 @@
       <c r="I360" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J360" s="2"/>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>67</v>
       </c>
@@ -11220,10 +11575,11 @@
         <v>8</v>
       </c>
       <c r="I361" s="1">
-        <v>1.796527777776646</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J361" s="2"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>67</v>
       </c>
@@ -11251,8 +11607,9 @@
       <c r="I362" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J362" s="2"/>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>67</v>
       </c>
@@ -11280,8 +11637,9 @@
       <c r="I363" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J363" s="2"/>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>67</v>
       </c>
@@ -11309,8 +11667,9 @@
       <c r="I364" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J364" s="2"/>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>67</v>
       </c>
@@ -11338,8 +11697,9 @@
       <c r="I365" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J365" s="2"/>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>67</v>
       </c>
@@ -11367,8 +11727,9 @@
       <c r="I366" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J366" s="2"/>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>67</v>
       </c>
@@ -11396,8 +11757,9 @@
       <c r="I367" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J367" s="2"/>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>67</v>
       </c>
@@ -11425,8 +11787,9 @@
       <c r="I368" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J368" s="2"/>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>67</v>
       </c>
@@ -11452,10 +11815,11 @@
         <v>10</v>
       </c>
       <c r="I369" s="1">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J369" s="2"/>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>67</v>
       </c>
@@ -11483,8 +11847,9 @@
       <c r="I370" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J370" s="2"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>67</v>
       </c>
@@ -11512,8 +11877,9 @@
       <c r="I371" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J371" s="2"/>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>67</v>
       </c>
@@ -11541,8 +11907,9 @@
       <c r="I372" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J372" s="2"/>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>67</v>
       </c>
@@ -11570,8 +11937,9 @@
       <c r="I373" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J373" s="2"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>68</v>
       </c>
@@ -11597,10 +11965,11 @@
         <v>3</v>
       </c>
       <c r="I374" s="1">
-        <v>7.9069444444394321</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J374" s="2"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>68</v>
       </c>
@@ -11626,10 +11995,11 @@
         <v>3</v>
       </c>
       <c r="I375" s="1">
-        <v>9.765972222223354</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="J375" s="2"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>68</v>
       </c>
@@ -11655,10 +12025,11 @@
         <v>4</v>
       </c>
       <c r="I376" s="1">
-        <v>2.2916666666642413</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J376" s="2"/>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>68</v>
       </c>
@@ -11684,10 +12055,11 @@
         <v>4</v>
       </c>
       <c r="I377" s="1">
-        <v>13.878472222218988</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="J377" s="2"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>68</v>
       </c>
@@ -11713,10 +12085,11 @@
         <v>5</v>
       </c>
       <c r="I378" s="1">
-        <v>9.8187499999985448</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="J378" s="2"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>68</v>
       </c>
@@ -11744,8 +12117,9 @@
       <c r="I379" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J379" s="2"/>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>68</v>
       </c>
@@ -11771,10 +12145,11 @@
         <v>7</v>
       </c>
       <c r="I380" s="1">
-        <v>13.663888888884685</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="J380" s="2"/>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>68</v>
       </c>
@@ -11802,8 +12177,9 @@
       <c r="I381" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J381" s="2"/>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>68</v>
       </c>
@@ -11828,11 +12204,12 @@
       <c r="H382">
         <v>9</v>
       </c>
-      <c r="I382" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I382" s="1">
+        <v>377</v>
+      </c>
+      <c r="J382" s="2"/>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>68</v>
       </c>
@@ -11858,10 +12235,11 @@
         <v>10</v>
       </c>
       <c r="I383" s="1">
-        <v>14.800694444442343</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J383" s="2"/>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>68</v>
       </c>
@@ -11889,8 +12267,9 @@
       <c r="I384" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J384" s="2"/>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>68</v>
       </c>
@@ -11916,10 +12295,11 @@
         <v>11</v>
       </c>
       <c r="I385" s="1">
-        <v>100.10972222222335</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="J385" s="2"/>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>68</v>
       </c>
@@ -11947,8 +12327,9 @@
       <c r="I386" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J386" s="2"/>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>68</v>
       </c>
@@ -11974,10 +12355,11 @@
         <v>14</v>
       </c>
       <c r="I387" s="1">
-        <v>7.9590277777824667</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J387" s="2"/>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>69</v>
       </c>
@@ -12005,8 +12387,9 @@
       <c r="I388" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J388" s="2"/>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>69</v>
       </c>
@@ -12034,8 +12417,9 @@
       <c r="I389" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J389" s="2"/>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>69</v>
       </c>
@@ -12063,8 +12447,9 @@
       <c r="I390" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J390" s="2"/>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>69</v>
       </c>
@@ -12092,8 +12477,9 @@
       <c r="I391" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J391" s="2"/>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>69</v>
       </c>
@@ -12121,8 +12507,9 @@
       <c r="I392" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J392" s="2"/>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>69</v>
       </c>
@@ -12150,8 +12537,9 @@
       <c r="I393" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J393" s="2"/>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>69</v>
       </c>
@@ -12179,8 +12567,9 @@
       <c r="I394" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J394" s="2"/>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>69</v>
       </c>
@@ -12206,10 +12595,11 @@
         <v>8</v>
       </c>
       <c r="I395" s="1">
-        <v>1.0138888888905058</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J395" s="2"/>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>69</v>
       </c>
@@ -12237,8 +12627,9 @@
       <c r="I396" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J396" s="2"/>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>69</v>
       </c>
@@ -12266,8 +12657,9 @@
       <c r="I397" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J397" s="2"/>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>69</v>
       </c>
@@ -12295,8 +12687,9 @@
       <c r="I398" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J398" s="2"/>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>69</v>
       </c>
@@ -12324,8 +12717,9 @@
       <c r="I399" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J399" s="2"/>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>69</v>
       </c>
@@ -12353,8 +12747,9 @@
       <c r="I400" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J400" s="2"/>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>70</v>
       </c>
@@ -12382,8 +12777,9 @@
       <c r="I401" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J401" s="2"/>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>70</v>
       </c>
@@ -12411,8 +12807,9 @@
       <c r="I402" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J402" s="2"/>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>70</v>
       </c>
@@ -12440,8 +12837,9 @@
       <c r="I403" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J403" s="2"/>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>70</v>
       </c>
@@ -12469,8 +12867,9 @@
       <c r="I404" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J404" s="2"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>70</v>
       </c>
@@ -12498,8 +12897,9 @@
       <c r="I405" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J405" s="2"/>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>70</v>
       </c>
@@ -12525,10 +12925,11 @@
         <v>5</v>
       </c>
       <c r="I406" s="1">
-        <v>1.6104166666700621</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J406" s="2"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>70</v>
       </c>
@@ -12556,8 +12957,9 @@
       <c r="I407" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J407" s="2"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>70</v>
       </c>
@@ -12585,8 +12987,9 @@
       <c r="I408" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J408" s="2"/>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>70</v>
       </c>
@@ -12614,8 +13017,9 @@
       <c r="I409" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J409" s="2"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>70</v>
       </c>
@@ -12643,8 +13047,9 @@
       <c r="I410" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J410" s="2"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>70</v>
       </c>
@@ -12672,8 +13077,9 @@
       <c r="I411" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J411" s="2"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>70</v>
       </c>
@@ -12701,8 +13107,9 @@
       <c r="I412" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J412" s="2"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>71</v>
       </c>
@@ -12730,8 +13137,9 @@
       <c r="I413" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J413" s="2"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>71</v>
       </c>
@@ -12759,8 +13167,9 @@
       <c r="I414" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J414" s="2"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>71</v>
       </c>
@@ -12786,10 +13195,11 @@
         <v>5</v>
       </c>
       <c r="I415" s="1">
-        <v>19.16874999999709</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="J415" s="2"/>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>71</v>
       </c>
@@ -12817,8 +13227,9 @@
       <c r="I416" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J416" s="2"/>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>71</v>
       </c>
@@ -12846,8 +13257,9 @@
       <c r="I417" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J417" s="2"/>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>71</v>
       </c>
@@ -12875,8 +13287,9 @@
       <c r="I418" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J418" s="2"/>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>71</v>
       </c>
@@ -12904,8 +13317,9 @@
       <c r="I419" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J419" s="2"/>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>71</v>
       </c>
@@ -12933,8 +13347,9 @@
       <c r="I420" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J420" s="2"/>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>72</v>
       </c>
@@ -12962,8 +13377,9 @@
       <c r="I421" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J421" s="2"/>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>72</v>
       </c>
@@ -12991,8 +13407,9 @@
       <c r="I422" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J422" s="2"/>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>72</v>
       </c>
@@ -13020,8 +13437,9 @@
       <c r="I423" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J423" s="2"/>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>72</v>
       </c>
@@ -13049,8 +13467,9 @@
       <c r="I424" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J424" s="2"/>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>72</v>
       </c>
@@ -13078,8 +13497,9 @@
       <c r="I425" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J425" s="2"/>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>72</v>
       </c>
@@ -13107,8 +13527,9 @@
       <c r="I426" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J426" s="2"/>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>73</v>
       </c>
@@ -13136,8 +13557,9 @@
       <c r="I427" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J427" s="2"/>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>73</v>
       </c>
@@ -13165,8 +13587,9 @@
       <c r="I428" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J428" s="2"/>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>73</v>
       </c>
@@ -13194,8 +13617,9 @@
       <c r="I429" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J429" s="2"/>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>74</v>
       </c>
@@ -13223,8 +13647,9 @@
       <c r="I430" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J430" s="2"/>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>74</v>
       </c>
@@ -13252,8 +13677,9 @@
       <c r="I431" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J431" s="2"/>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>75</v>
       </c>
@@ -13281,8 +13707,9 @@
       <c r="I432" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J432" s="2"/>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>75</v>
       </c>
@@ -13310,8 +13737,9 @@
       <c r="I433" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J433" s="2"/>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>76</v>
       </c>
@@ -13339,8 +13767,9 @@
       <c r="I434" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J434" s="2"/>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>76</v>
       </c>
@@ -13368,8 +13797,9 @@
       <c r="I435" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J435" s="2"/>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>76</v>
       </c>
@@ -13397,8 +13827,9 @@
       <c r="I436" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J436" s="2"/>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>76</v>
       </c>
@@ -13424,10 +13855,11 @@
         <v>6</v>
       </c>
       <c r="I437" s="1">
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="J437" s="2"/>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>76</v>
       </c>
@@ -13455,8 +13887,9 @@
       <c r="I438" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J438" s="2"/>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>76</v>
       </c>
@@ -13484,8 +13917,9 @@
       <c r="I439" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J439" s="2"/>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>77</v>
       </c>
@@ -13513,8 +13947,9 @@
       <c r="I440" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J440" s="2"/>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>77</v>
       </c>
@@ -13542,8 +13977,9 @@
       <c r="I441" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J441" s="2"/>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>77</v>
       </c>
@@ -13571,8 +14007,9 @@
       <c r="I442" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J442" s="2"/>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>77</v>
       </c>
@@ -13600,8 +14037,9 @@
       <c r="I443" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J443" s="2"/>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>77</v>
       </c>
@@ -13629,8 +14067,9 @@
       <c r="I444" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J444" s="2"/>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>77</v>
       </c>
@@ -13658,8 +14097,9 @@
       <c r="I445" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J445" s="2"/>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>77</v>
       </c>
@@ -13687,8 +14127,9 @@
       <c r="I446" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J446" s="2"/>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>78</v>
       </c>
@@ -13716,8 +14157,9 @@
       <c r="I447" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J447" s="2"/>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>78</v>
       </c>
@@ -13745,8 +14187,9 @@
       <c r="I448" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J448" s="2"/>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>78</v>
       </c>
@@ -13774,8 +14217,9 @@
       <c r="I449" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J449" s="2"/>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>78</v>
       </c>
@@ -13803,8 +14247,9 @@
       <c r="I450" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J450" s="2"/>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>78</v>
       </c>
@@ -13832,8 +14277,9 @@
       <c r="I451" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J451" s="2"/>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>78</v>
       </c>
@@ -13861,8 +14307,9 @@
       <c r="I452" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J452" s="2"/>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>78</v>
       </c>
@@ -13890,8 +14337,9 @@
       <c r="I453" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J453" s="2"/>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>79</v>
       </c>
@@ -13919,8 +14367,9 @@
       <c r="I454" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J454" s="2"/>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>79</v>
       </c>
@@ -13948,8 +14397,9 @@
       <c r="I455" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J455" s="2"/>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>79</v>
       </c>
@@ -13977,8 +14427,9 @@
       <c r="I456" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J456" s="2"/>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>79</v>
       </c>
@@ -14006,8 +14457,9 @@
       <c r="I457" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J457" s="2"/>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>79</v>
       </c>
@@ -14035,8 +14487,9 @@
       <c r="I458" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J458" s="2"/>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>79</v>
       </c>
@@ -14064,8 +14517,9 @@
       <c r="I459" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J459" s="2"/>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>79</v>
       </c>
@@ -14093,8 +14547,9 @@
       <c r="I460" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J460" s="2"/>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>79</v>
       </c>
@@ -14122,8 +14577,9 @@
       <c r="I461" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J461" s="2"/>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>80</v>
       </c>
@@ -14149,10 +14605,11 @@
         <v>5</v>
       </c>
       <c r="I462" s="1">
-        <v>10.875</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="J462" s="2"/>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>80</v>
       </c>
@@ -14178,10 +14635,11 @@
         <v>6</v>
       </c>
       <c r="I463" s="1">
-        <v>18.13888888888323</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="J463" s="2"/>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>80</v>
       </c>
@@ -14207,10 +14665,11 @@
         <v>7</v>
       </c>
       <c r="I464" s="1">
-        <v>34.28263888888614</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="J464" s="2"/>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>80</v>
       </c>
@@ -14238,8 +14697,9 @@
       <c r="I465" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J465" s="2"/>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>80</v>
       </c>
@@ -14265,10 +14725,11 @@
         <v>8</v>
       </c>
       <c r="I466" s="1">
-        <v>21.085416666668607</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="J466" s="2"/>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>80</v>
       </c>
@@ -14296,8 +14757,9 @@
       <c r="I467" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J467" s="2"/>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>80</v>
       </c>
@@ -14325,8 +14787,9 @@
       <c r="I468" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J468" s="2"/>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>80</v>
       </c>
@@ -14352,10 +14815,11 @@
         <v>9</v>
       </c>
       <c r="I469" s="1">
-        <v>28.836805555554747</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="J469" s="2"/>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>80</v>
       </c>
@@ -14381,10 +14845,11 @@
         <v>9</v>
       </c>
       <c r="I470" s="1">
-        <v>24.777777777773736</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="J470" s="2"/>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>80</v>
       </c>
@@ -14412,8 +14877,9 @@
       <c r="I471" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J471" s="2"/>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>81</v>
       </c>
@@ -14439,10 +14905,11 @@
         <v>4</v>
       </c>
       <c r="I472" s="1">
-        <v>6.3333333333357587</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="J472" s="2"/>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>81</v>
       </c>
@@ -14468,10 +14935,11 @@
         <v>5</v>
       </c>
       <c r="I473" s="1">
-        <v>9.2937500000043656</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="J473" s="2"/>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>81</v>
       </c>
@@ -14499,8 +14967,9 @@
       <c r="I474" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J474" s="2"/>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>81</v>
       </c>
@@ -14526,10 +14995,11 @@
         <v>6</v>
       </c>
       <c r="I475" s="1">
-        <v>15.243055555554747</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="J475" s="2"/>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>81</v>
       </c>
@@ -14555,10 +15025,11 @@
         <v>8</v>
       </c>
       <c r="I476" s="1">
-        <v>14.060416666667152</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J476" s="2"/>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>81</v>
       </c>
@@ -14586,8 +15057,9 @@
       <c r="I477" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J477" s="2"/>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>81</v>
       </c>
@@ -14615,8 +15087,9 @@
       <c r="I478" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J478" s="2"/>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>81</v>
       </c>
@@ -14642,10 +15115,11 @@
         <v>9</v>
       </c>
       <c r="I479" s="1">
-        <v>8.5347222222262644</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="J479" s="2"/>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>81</v>
       </c>
@@ -14673,8 +15147,9 @@
       <c r="I480" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J480" s="2"/>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>81</v>
       </c>
@@ -14702,8 +15177,9 @@
       <c r="I481" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J481" s="2"/>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>81</v>
       </c>
@@ -14731,8 +15207,9 @@
       <c r="I482" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J482" s="2"/>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>81</v>
       </c>
@@ -14760,8 +15237,9 @@
       <c r="I483" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J483" s="2"/>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>81</v>
       </c>
@@ -14789,8 +15267,9 @@
       <c r="I484" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J484" s="2"/>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>81</v>
       </c>
@@ -14818,8 +15297,9 @@
       <c r="I485" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J485" s="2"/>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>82</v>
       </c>
@@ -14847,8 +15327,9 @@
       <c r="I486" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J486" s="2"/>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>82</v>
       </c>
@@ -14876,8 +15357,9 @@
       <c r="I487" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J487" s="2"/>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>82</v>
       </c>
@@ -14903,10 +15385,11 @@
         <v>8</v>
       </c>
       <c r="I488" s="1">
-        <v>64.95625000000291</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="J488" s="2"/>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>82</v>
       </c>
@@ -14932,10 +15415,11 @@
         <v>11</v>
       </c>
       <c r="I489" s="1">
-        <v>22.996527777781012</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="J489" s="2"/>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>82</v>
       </c>
@@ -14961,10 +15445,11 @@
         <v>13</v>
       </c>
       <c r="I490" s="1">
-        <v>26.899305555554747</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="J490" s="2"/>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>83</v>
       </c>
@@ -14992,8 +15477,9 @@
       <c r="I491" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J491" s="2"/>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>83</v>
       </c>
@@ -15021,8 +15507,9 @@
       <c r="I492" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J492" s="2"/>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>84</v>
       </c>
@@ -15050,8 +15537,9 @@
       <c r="I493" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J493" s="2"/>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>84</v>
       </c>
@@ -15079,8 +15567,9 @@
       <c r="I494" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J494" s="2"/>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>84</v>
       </c>
@@ -15108,8 +15597,9 @@
       <c r="I495" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J495" s="2"/>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>84</v>
       </c>
@@ -15135,10 +15625,11 @@
         <v>24</v>
       </c>
       <c r="I496" s="1">
-        <v>33.690972222218988</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="J496" s="2"/>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>84</v>
       </c>
@@ -15166,8 +15657,9 @@
       <c r="I497" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J497" s="2"/>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>84</v>
       </c>
@@ -15195,8 +15687,9 @@
       <c r="I498" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J498" s="2"/>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>84</v>
       </c>
@@ -15224,8 +15717,9 @@
       <c r="I499" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J499" s="2"/>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>85</v>
       </c>
@@ -15253,8 +15747,9 @@
       <c r="I500" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J500" s="2"/>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>85</v>
       </c>
@@ -15282,8 +15777,9 @@
       <c r="I501" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J501" s="2"/>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>85</v>
       </c>
@@ -15311,8 +15807,9 @@
       <c r="I502" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J502" s="2"/>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>85</v>
       </c>
@@ -15338,10 +15835,11 @@
         <v>22</v>
       </c>
       <c r="I503" s="1">
-        <v>37.493055555554747</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="J503" s="2"/>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>85</v>
       </c>
@@ -15369,8 +15867,9 @@
       <c r="I504" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J504" s="2"/>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>85</v>
       </c>
@@ -15398,8 +15897,9 @@
       <c r="I505" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J505" s="2"/>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>85</v>
       </c>
@@ -15427,8 +15927,9 @@
       <c r="I506" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J506" s="2"/>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>86</v>
       </c>
@@ -15456,8 +15957,9 @@
       <c r="I507" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J507" s="2"/>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>86</v>
       </c>
@@ -15483,10 +15985,11 @@
         <v>9</v>
       </c>
       <c r="I508" s="1">
-        <v>16.083333333335759</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="J508" s="2"/>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>86</v>
       </c>
@@ -15514,8 +16017,9 @@
       <c r="I509" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J509" s="2"/>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>86</v>
       </c>
@@ -15541,10 +16045,11 @@
         <v>9</v>
       </c>
       <c r="I510" s="1">
-        <v>3.9583449074052623</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="J510" s="2"/>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>86</v>
       </c>
@@ -15572,8 +16077,9 @@
       <c r="I511" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J511" s="2"/>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>86</v>
       </c>
@@ -15599,10 +16105,11 @@
         <v>9</v>
       </c>
       <c r="I512" s="1">
-        <v>37.43751157407678</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="J512" s="2"/>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>86</v>
       </c>
@@ -15628,10 +16135,11 @@
         <v>9</v>
       </c>
       <c r="I513" s="1">
-        <v>13.958344907412538</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="J513" s="2"/>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>86</v>
       </c>
@@ -15659,8 +16167,9 @@
       <c r="I514" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J514" s="2"/>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>86</v>
       </c>
@@ -15688,8 +16197,9 @@
       <c r="I515" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J515" s="2"/>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>86</v>
       </c>
@@ -15717,8 +16227,9 @@
       <c r="I516" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J516" s="2"/>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>86</v>
       </c>
@@ -15746,8 +16257,9 @@
       <c r="I517" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J517" s="2"/>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>86</v>
       </c>
@@ -15775,8 +16287,9 @@
       <c r="I518" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J518" s="2"/>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>87</v>
       </c>
@@ -15804,8 +16317,9 @@
       <c r="I519" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J519" s="2"/>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>87</v>
       </c>
@@ -15831,10 +16345,11 @@
         <v>8</v>
       </c>
       <c r="I520" s="1">
-        <v>2.7916550925947377</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J520" s="2"/>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>87</v>
       </c>
@@ -15862,8 +16377,9 @@
       <c r="I521" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J521" s="2"/>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>87</v>
       </c>
@@ -15891,8 +16407,9 @@
       <c r="I522" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J522" s="2"/>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>87</v>
       </c>
@@ -15920,8 +16437,9 @@
       <c r="I523" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J523" s="2"/>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>87</v>
       </c>
@@ -15947,10 +16465,11 @@
         <v>13</v>
       </c>
       <c r="I524" s="1">
-        <v>2.1451388888890506</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="J524" s="2"/>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>87</v>
       </c>
@@ -15978,8 +16497,9 @@
       <c r="I525" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J525" s="2"/>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>87</v>
       </c>
@@ -16007,8 +16527,9 @@
       <c r="I526" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J526" s="2"/>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>87</v>
       </c>
@@ -16034,10 +16555,11 @@
         <v>13</v>
       </c>
       <c r="I527" s="1">
-        <v>4.8923611111167702</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="J527" s="2"/>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>87</v>
       </c>
@@ -16063,10 +16585,11 @@
         <v>14</v>
       </c>
       <c r="I528" s="1">
-        <v>10.291666666664241</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="J528" s="2"/>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>87</v>
       </c>
@@ -16094,8 +16617,9 @@
       <c r="I529" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J529" s="2"/>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>87</v>
       </c>
@@ -16123,8 +16647,9 @@
       <c r="I530" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J530" s="2"/>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>87</v>
       </c>
@@ -16152,8 +16677,9 @@
       <c r="I531" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J531" s="2"/>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>87</v>
       </c>
@@ -16181,8 +16707,9 @@
       <c r="I532" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J532" s="2"/>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>87</v>
       </c>
@@ -16210,8 +16737,9 @@
       <c r="I533" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J533" s="2"/>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>87</v>
       </c>
@@ -16239,8 +16767,9 @@
       <c r="I534" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J534" s="2"/>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>87</v>
       </c>
@@ -16268,8 +16797,9 @@
       <c r="I535" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J535" s="2"/>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>87</v>
       </c>
@@ -16297,8 +16827,9 @@
       <c r="I536" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J536" s="2"/>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>88</v>
       </c>
@@ -16326,8 +16857,9 @@
       <c r="I537" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J537" s="2"/>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>88</v>
       </c>
@@ -16355,8 +16887,9 @@
       <c r="I538" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J538" s="2"/>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>88</v>
       </c>
@@ -16384,8 +16917,9 @@
       <c r="I539" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J539" s="2"/>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>88</v>
       </c>
@@ -16413,8 +16947,9 @@
       <c r="I540" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J540" s="2"/>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>88</v>
       </c>
@@ -16440,10 +16975,11 @@
         <v>8</v>
       </c>
       <c r="I541" s="1">
-        <v>20.541689814817801</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="J541" s="2"/>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>88</v>
       </c>
@@ -16471,8 +17007,9 @@
       <c r="I542" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J542" s="2"/>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>88</v>
       </c>
@@ -16500,8 +17037,9 @@
       <c r="I543" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J543" s="2"/>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>88</v>
       </c>
@@ -16529,8 +17067,9 @@
       <c r="I544" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J544" s="2"/>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>88</v>
       </c>
@@ -16558,8 +17097,9 @@
       <c r="I545" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J545" s="2"/>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>88</v>
       </c>
@@ -16587,8 +17127,9 @@
       <c r="I546" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J546" s="2"/>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>88</v>
       </c>
@@ -16616,8 +17157,9 @@
       <c r="I547" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J547" s="2"/>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>88</v>
       </c>
@@ -16645,8 +17187,9 @@
       <c r="I548" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J548" s="2"/>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>88</v>
       </c>
@@ -16672,10 +17215,11 @@
         <v>13</v>
       </c>
       <c r="I549" s="1">
-        <v>28.489583333328483</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="J549" s="2"/>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>88</v>
       </c>
@@ -16703,8 +17247,9 @@
       <c r="I550" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J550" s="2"/>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>88</v>
       </c>
@@ -16732,8 +17277,9 @@
       <c r="I551" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J551" s="2"/>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>88</v>
       </c>
@@ -16761,8 +17307,9 @@
       <c r="I552" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J552" s="2"/>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>88</v>
       </c>
@@ -16788,10 +17335,11 @@
         <v>15</v>
       </c>
       <c r="I553" s="1">
-        <v>64.072916666664241</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="J553" s="2"/>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>88</v>
       </c>
@@ -16819,8 +17367,9 @@
       <c r="I554" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J554" s="2"/>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>88</v>
       </c>
@@ -16848,8 +17397,9 @@
       <c r="I555" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J555" s="2"/>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>88</v>
       </c>
@@ -16877,8 +17427,9 @@
       <c r="I556" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J556" s="2"/>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>88</v>
       </c>
@@ -16906,8 +17457,9 @@
       <c r="I557" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J557" s="2"/>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>88</v>
       </c>
@@ -16935,8 +17487,9 @@
       <c r="I558" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J558" s="2"/>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>88</v>
       </c>
@@ -16964,8 +17517,9 @@
       <c r="I559" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J559" s="2"/>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>89</v>
       </c>
@@ -16993,8 +17547,9 @@
       <c r="I560" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J560" s="2"/>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>89</v>
       </c>
@@ -17022,8 +17577,9 @@
       <c r="I561" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J561" s="2"/>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>89</v>
       </c>
@@ -17051,8 +17607,9 @@
       <c r="I562" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J562" s="2"/>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>89</v>
       </c>
@@ -17080,8 +17637,9 @@
       <c r="I563" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J563" s="2"/>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>89</v>
       </c>
@@ -17109,8 +17667,9 @@
       <c r="I564" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J564" s="2"/>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>89</v>
       </c>
@@ -17138,8 +17697,9 @@
       <c r="I565" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J565" s="2"/>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>89</v>
       </c>
@@ -17167,8 +17727,9 @@
       <c r="I566" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J566" s="2"/>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>89</v>
       </c>
@@ -17196,8 +17757,9 @@
       <c r="I567" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J567" s="2"/>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>90</v>
       </c>
@@ -17223,10 +17785,11 @@
         <v>6</v>
       </c>
       <c r="I568" s="1">
-        <v>15.707638888889051</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="J568" s="2"/>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>90</v>
       </c>
@@ -17254,8 +17817,9 @@
       <c r="I569" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J569" s="2"/>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>90</v>
       </c>
@@ -17281,10 +17845,11 @@
         <v>9</v>
       </c>
       <c r="I570" s="1">
-        <v>17.59513888888614</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="J570" s="2"/>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>90</v>
       </c>
@@ -17312,8 +17877,9 @@
       <c r="I571" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J571" s="2"/>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>90</v>
       </c>
@@ -17341,8 +17907,9 @@
       <c r="I572" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J572" s="2"/>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>90</v>
       </c>
@@ -17370,8 +17937,9 @@
       <c r="I573" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J573" s="2"/>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>90</v>
       </c>
@@ -17399,8 +17967,9 @@
       <c r="I574" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J574" s="2"/>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>90</v>
       </c>
@@ -17428,8 +17997,9 @@
       <c r="I575" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J575" s="2"/>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>91</v>
       </c>
@@ -17455,10 +18025,11 @@
         <v>4</v>
       </c>
       <c r="I576" s="1">
-        <v>24.355555555557657</v>
-      </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="J576" s="2"/>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>91</v>
       </c>
@@ -17486,8 +18057,9 @@
       <c r="I577" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J577" s="2"/>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>91</v>
       </c>
@@ -17513,10 +18085,11 @@
         <v>7</v>
       </c>
       <c r="I578" s="1">
-        <v>18.795138888890506</v>
-      </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="J578" s="2"/>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>91</v>
       </c>
@@ -17544,8 +18117,9 @@
       <c r="I579" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J579" s="2"/>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>91</v>
       </c>
@@ -17573,8 +18147,9 @@
       <c r="I580" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J580" s="2"/>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>91</v>
       </c>
@@ -17600,10 +18175,11 @@
         <v>8</v>
       </c>
       <c r="I581" s="1">
-        <v>31.590277777773736</v>
-      </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="J581" s="2"/>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>91</v>
       </c>
@@ -17631,8 +18207,9 @@
       <c r="I582" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J582" s="2"/>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>91</v>
       </c>
@@ -17660,8 +18237,9 @@
       <c r="I583" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J583" s="2"/>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>91</v>
       </c>
@@ -17689,8 +18267,9 @@
       <c r="I584" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J584" s="2"/>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>91</v>
       </c>
@@ -17718,8 +18297,9 @@
       <c r="I585" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J585" s="2"/>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>91</v>
       </c>
@@ -17747,8 +18327,9 @@
       <c r="I586" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J586" s="2"/>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>91</v>
       </c>
@@ -17776,8 +18357,9 @@
       <c r="I587" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J587" s="2"/>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>91</v>
       </c>
@@ -17805,8 +18387,9 @@
       <c r="I588" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J588" s="2"/>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>91</v>
       </c>
@@ -17834,8 +18417,9 @@
       <c r="I589" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J589" s="2"/>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>91</v>
       </c>
@@ -17863,8 +18447,9 @@
       <c r="I590" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J590" s="2"/>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>91</v>
       </c>
@@ -17892,8 +18477,9 @@
       <c r="I591" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J591" s="2"/>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>92</v>
       </c>
@@ -17921,8 +18507,9 @@
       <c r="I592" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J592" s="2"/>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>92</v>
       </c>
@@ -17950,8 +18537,9 @@
       <c r="I593" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J593" s="2"/>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>92</v>
       </c>
@@ -17979,8 +18567,9 @@
       <c r="I594" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J594" s="2"/>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>92</v>
       </c>
@@ -18008,8 +18597,9 @@
       <c r="I595" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J595" s="2"/>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>92</v>
       </c>
@@ -18037,8 +18627,9 @@
       <c r="I596" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J596" s="2"/>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>92</v>
       </c>
@@ -18066,8 +18657,9 @@
       <c r="I597" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J597" s="2"/>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>93</v>
       </c>
@@ -18095,8 +18687,9 @@
       <c r="I598" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J598" s="2"/>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>93</v>
       </c>
@@ -18124,8 +18717,9 @@
       <c r="I599" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J599" s="2"/>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>93</v>
       </c>
@@ -18153,8 +18747,9 @@
       <c r="I600" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J600" s="2"/>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>93</v>
       </c>
@@ -18182,8 +18777,9 @@
       <c r="I601" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J601" s="2"/>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>93</v>
       </c>
@@ -18211,8 +18807,9 @@
       <c r="I602" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J602" s="2"/>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>94</v>
       </c>
@@ -18240,8 +18837,9 @@
       <c r="I603" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J603" s="2"/>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>94</v>
       </c>
@@ -18269,8 +18867,9 @@
       <c r="I604" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J604" s="2"/>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>94</v>
       </c>
@@ -18298,8 +18897,9 @@
       <c r="I605" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J605" s="2"/>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>94</v>
       </c>
@@ -18327,8 +18927,9 @@
       <c r="I606" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J606" s="2"/>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>94</v>
       </c>
@@ -18356,8 +18957,9 @@
       <c r="I607" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J607" s="2"/>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>94</v>
       </c>
@@ -18385,8 +18987,9 @@
       <c r="I608" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J608" s="2"/>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>94</v>
       </c>
@@ -18414,8 +19017,9 @@
       <c r="I609" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J609" s="2"/>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>94</v>
       </c>
@@ -18443,8 +19047,9 @@
       <c r="I610" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J610" s="2"/>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>95</v>
       </c>
@@ -18472,8 +19077,9 @@
       <c r="I611" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J611" s="2"/>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>95</v>
       </c>
@@ -18501,9 +19107,9 @@
       <c r="I612" s="1">
         <v>4</v>
       </c>
+      <c r="J612" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I612" xr:uid="{E383BF24-2345-46A8-A77A-2A52503DF31C}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K737373 PÚBLICA</oddFooter>
